--- a/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.977275857952812</v>
+        <v>0.9813768726311652</v>
       </c>
       <c r="D2">
-        <v>0.9999923252583395</v>
+        <v>1.003828651668715</v>
       </c>
       <c r="E2">
-        <v>0.9843546027718564</v>
+        <v>0.9879185201182618</v>
       </c>
       <c r="F2">
-        <v>0.9528828289321096</v>
+        <v>0.9918171986185896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034844666560698</v>
+        <v>1.038172872586142</v>
       </c>
       <c r="J2">
-        <v>1.000158158437749</v>
+        <v>1.004129233186834</v>
       </c>
       <c r="K2">
-        <v>1.011451767003176</v>
+        <v>1.015234903756653</v>
       </c>
       <c r="L2">
-        <v>0.9960362935438078</v>
+        <v>0.9995487753020755</v>
       </c>
       <c r="M2">
-        <v>0.9650400953575842</v>
+        <v>1.003391722416735</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.987439494471253</v>
+        <v>0.9911134112553652</v>
       </c>
       <c r="D3">
-        <v>1.00792295545554</v>
+        <v>1.011402121976021</v>
       </c>
       <c r="E3">
-        <v>0.9931605287481777</v>
+        <v>0.9963527889294288</v>
       </c>
       <c r="F3">
-        <v>0.966136511663319</v>
+        <v>1.00158308040045</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038705154067102</v>
+        <v>1.041804045785621</v>
       </c>
       <c r="J3">
-        <v>1.008278528382401</v>
+        <v>1.011849300555448</v>
       </c>
       <c r="K3">
-        <v>1.018455454452023</v>
+        <v>1.021891159989934</v>
       </c>
       <c r="L3">
-        <v>1.003881676418686</v>
+        <v>1.007032550197164</v>
       </c>
       <c r="M3">
-        <v>0.977221837259769</v>
+        <v>1.012195745412871</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937224748865098</v>
+        <v>0.997160201178304</v>
       </c>
       <c r="D4">
-        <v>1.012828160520999</v>
+        <v>1.016108499905863</v>
       </c>
       <c r="E4">
-        <v>0.9986049668026339</v>
+        <v>1.001591635745978</v>
       </c>
       <c r="F4">
-        <v>0.9743165908241578</v>
+        <v>1.007656664757671</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041073365346436</v>
+        <v>1.044042374688356</v>
       </c>
       <c r="J4">
-        <v>1.013288135041663</v>
+        <v>1.016636829316832</v>
       </c>
       <c r="K4">
-        <v>1.022774187656591</v>
+        <v>1.026016320564198</v>
       </c>
       <c r="L4">
-        <v>1.008720257857123</v>
+        <v>1.011670889009828</v>
       </c>
       <c r="M4">
-        <v>0.98473520487396</v>
+        <v>1.01766355064497</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962994233280936</v>
+        <v>0.9996461495285895</v>
       </c>
       <c r="D5">
-        <v>1.014840467916418</v>
+        <v>1.018043907362716</v>
       </c>
       <c r="E5">
-        <v>1.000838050427019</v>
+        <v>1.003745502492166</v>
       </c>
       <c r="F5">
-        <v>0.9776692943824704</v>
+        <v>1.010155611571034</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042040230353086</v>
+        <v>1.04495848332981</v>
       </c>
       <c r="J5">
-        <v>1.015340324861395</v>
+        <v>1.018603322137433</v>
       </c>
       <c r="K5">
-        <v>1.02454282740451</v>
+        <v>1.027710062946706</v>
       </c>
       <c r="L5">
-        <v>1.010702024862089</v>
+        <v>1.01357546065254</v>
       </c>
       <c r="M5">
-        <v>0.9878133372686867</v>
+        <v>1.019911427611555</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9967284825718524</v>
+        <v>1.00006038225882</v>
       </c>
       <c r="D6">
-        <v>1.015175536578389</v>
+        <v>1.018366429823473</v>
       </c>
       <c r="E6">
-        <v>1.0012098568137</v>
+        <v>1.004104402034757</v>
       </c>
       <c r="F6">
-        <v>0.9782273999465512</v>
+        <v>1.010572124906362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042200948550252</v>
+        <v>1.045110889995613</v>
       </c>
       <c r="J6">
-        <v>1.015681865189803</v>
+        <v>1.018930892961742</v>
       </c>
       <c r="K6">
-        <v>1.024837144241417</v>
+        <v>1.027992158790047</v>
       </c>
       <c r="L6">
-        <v>1.011031822789323</v>
+        <v>1.013892679071492</v>
       </c>
       <c r="M6">
-        <v>0.9883256571538498</v>
+        <v>1.020285986196453</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.993757154155954</v>
+        <v>0.9971936334605518</v>
       </c>
       <c r="D7">
-        <v>1.012855239576288</v>
+        <v>1.016134526368745</v>
       </c>
       <c r="E7">
-        <v>0.9986350184233176</v>
+        <v>1.001620601861526</v>
       </c>
       <c r="F7">
-        <v>0.9743617180985498</v>
+        <v>1.007690264076834</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041086394682433</v>
+        <v>1.0440547113885</v>
       </c>
       <c r="J7">
-        <v>1.013315762284454</v>
+        <v>1.016663282743772</v>
       </c>
       <c r="K7">
-        <v>1.022797999849995</v>
+        <v>1.026039107685187</v>
       </c>
       <c r="L7">
-        <v>1.008746938521114</v>
+        <v>1.011696512015518</v>
       </c>
       <c r="M7">
-        <v>0.9847766417387119</v>
+        <v>1.01769378147588</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9807752948547261</v>
+        <v>0.9847227651237139</v>
       </c>
       <c r="D8">
-        <v>1.002722236688244</v>
+        <v>1.006430478751081</v>
       </c>
       <c r="E8">
-        <v>0.987386320551059</v>
+        <v>0.9908166448678434</v>
       </c>
       <c r="F8">
-        <v>0.9574495438774542</v>
+        <v>0.9951713036376046</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036177724622088</v>
+        <v>1.039424212822745</v>
       </c>
       <c r="J8">
-        <v>1.002956252539908</v>
+        <v>1.006783603640755</v>
       </c>
       <c r="K8">
-        <v>1.013865459383637</v>
+        <v>1.017524044002871</v>
       </c>
       <c r="L8">
-        <v>0.9987399071813097</v>
+        <v>1.002122464426898</v>
       </c>
       <c r="M8">
-        <v>0.9692384960937029</v>
+        <v>1.006417082416438</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9553339814844501</v>
+        <v>0.9605680355864094</v>
       </c>
       <c r="D9">
-        <v>0.982896350587503</v>
+        <v>0.9876691553036195</v>
       </c>
       <c r="E9">
-        <v>0.9653552127588774</v>
+        <v>0.9699040125953134</v>
       </c>
       <c r="F9">
-        <v>0.9241462047627916</v>
+        <v>0.9709989126408002</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026407649786513</v>
+        <v>1.030320279480426</v>
       </c>
       <c r="J9">
-        <v>0.9825689733347726</v>
+        <v>0.9875944286546297</v>
       </c>
       <c r="K9">
-        <v>0.9962731548805073</v>
+        <v>1.000965510982603</v>
       </c>
       <c r="L9">
-        <v>0.9790365524818566</v>
+        <v>0.9835050087511842</v>
       </c>
       <c r="M9">
-        <v>0.9386027968516066</v>
+        <v>0.9845807156432289</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9360888893628284</v>
+        <v>0.9425956307449201</v>
       </c>
       <c r="D10">
-        <v>0.967939246050063</v>
+        <v>0.9737502208052968</v>
       </c>
       <c r="E10">
-        <v>0.94871195537228</v>
+        <v>0.9543647147827119</v>
       </c>
       <c r="F10">
-        <v>0.8987497319924036</v>
+        <v>0.9530725579955324</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018918434053094</v>
+        <v>1.023460630071604</v>
       </c>
       <c r="J10">
-        <v>0.9670895855762377</v>
+        <v>0.9732876448133999</v>
       </c>
       <c r="K10">
-        <v>0.9829125433856245</v>
+        <v>0.9886101682336448</v>
       </c>
       <c r="L10">
-        <v>0.9640733800922986</v>
+        <v>0.969609891486431</v>
       </c>
       <c r="M10">
-        <v>0.9152240782594513</v>
+        <v>0.9683441473302554</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9270403079810181</v>
+        <v>0.9342523385004092</v>
       </c>
       <c r="D11">
-        <v>0.9609215320031854</v>
+        <v>0.9673030574649231</v>
       </c>
       <c r="E11">
-        <v>0.9408958233093286</v>
+        <v>0.9471592483328501</v>
       </c>
       <c r="F11">
-        <v>0.8867294553655094</v>
+        <v>0.944766777662839</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0153751491961</v>
+        <v>1.020257773013646</v>
       </c>
       <c r="J11">
-        <v>0.9597981511337799</v>
+        <v>0.9666413442120818</v>
       </c>
       <c r="K11">
-        <v>0.9766200579593223</v>
+        <v>0.9828691049239693</v>
       </c>
       <c r="L11">
-        <v>0.9570256095321739</v>
+        <v>0.9631515466959761</v>
       </c>
       <c r="M11">
-        <v>0.9041582100247525</v>
+        <v>0.9608113069586505</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9235517018320512</v>
+        <v>0.9310561551809059</v>
       </c>
       <c r="D12">
-        <v>0.9582186833829442</v>
+        <v>0.9648359116648936</v>
       </c>
       <c r="E12">
-        <v>0.937884174435507</v>
+        <v>0.944400555777772</v>
       </c>
       <c r="F12">
-        <v>0.8820795124348152</v>
+        <v>0.9415876013296208</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014005911032226</v>
+        <v>1.019028255364166</v>
       </c>
       <c r="J12">
-        <v>0.9569850040145574</v>
+        <v>0.9640947840619423</v>
       </c>
       <c r="K12">
-        <v>0.9741926471675014</v>
+        <v>0.9806692991001587</v>
       </c>
       <c r="L12">
-        <v>0.9543066973311197</v>
+        <v>0.9606765329326961</v>
       </c>
       <c r="M12">
-        <v>0.8998777884791535</v>
+        <v>0.9579265069082428</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9243061794802968</v>
+        <v>0.9317463795644939</v>
       </c>
       <c r="D13">
-        <v>0.9588030909955625</v>
+        <v>0.9653685696064316</v>
       </c>
       <c r="E13">
-        <v>0.9385354122202337</v>
+        <v>0.9449962238740164</v>
       </c>
       <c r="F13">
-        <v>0.8830859261512938</v>
+        <v>0.9422740304019961</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014302173988201</v>
+        <v>1.019293884182646</v>
       </c>
       <c r="J13">
-        <v>0.9575934903340924</v>
+        <v>0.9646447372972843</v>
       </c>
       <c r="K13">
-        <v>0.9747176801658247</v>
+        <v>0.9811443697471338</v>
       </c>
       <c r="L13">
-        <v>0.9548947874711016</v>
+        <v>0.9612110557467599</v>
       </c>
       <c r="M13">
-        <v>0.9008042023515789</v>
+        <v>0.9585494422212975</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9267546781697567</v>
+        <v>0.9339902065567045</v>
       </c>
       <c r="D14">
-        <v>0.9607001766477419</v>
+        <v>0.9671006599279484</v>
       </c>
       <c r="E14">
-        <v>0.9406492054060139</v>
+        <v>0.9469329619885646</v>
       </c>
       <c r="F14">
-        <v>0.8863490811169185</v>
+        <v>0.9445059859222562</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015263105295549</v>
+        <v>1.02015698549647</v>
       </c>
       <c r="J14">
-        <v>0.9595678646897741</v>
+        <v>0.9664324984025964</v>
       </c>
       <c r="K14">
-        <v>0.9764213403801028</v>
+        <v>0.9826886979376773</v>
       </c>
       <c r="L14">
-        <v>0.9568030316579658</v>
+        <v>0.9629485777920659</v>
       </c>
       <c r="M14">
-        <v>0.9038080541586261</v>
+        <v>0.9605746930068404</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9282456758206687</v>
+        <v>0.935359401595928</v>
       </c>
       <c r="D15">
-        <v>0.9618557747961201</v>
+        <v>0.9681579547179289</v>
       </c>
       <c r="E15">
-        <v>0.9419366347404881</v>
+        <v>0.9481149918608222</v>
       </c>
       <c r="F15">
-        <v>0.8883339933123741</v>
+        <v>0.9458682886496036</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015847852224665</v>
+        <v>1.020683327523775</v>
       </c>
       <c r="J15">
-        <v>0.9607698876753297</v>
+        <v>0.9675233463495447</v>
       </c>
       <c r="K15">
-        <v>0.9774585981856408</v>
+        <v>0.9836310005873193</v>
       </c>
       <c r="L15">
-        <v>0.9579648284320792</v>
+        <v>0.96400871052986</v>
       </c>
       <c r="M15">
-        <v>0.905635292839992</v>
+        <v>0.9618106380646536</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9366727540762899</v>
+        <v>0.9431364951314769</v>
       </c>
       <c r="D16">
-        <v>0.9683924116003997</v>
+        <v>0.9741685001914893</v>
       </c>
       <c r="E16">
-        <v>0.9492165142924675</v>
+        <v>0.9548320164842472</v>
       </c>
       <c r="F16">
-        <v>0.8995234502874674</v>
+        <v>0.9536113376509316</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019146630420675</v>
+        <v>1.023667899199991</v>
       </c>
       <c r="J16">
-        <v>0.9675597985414693</v>
+        <v>0.9737184222214998</v>
       </c>
       <c r="K16">
-        <v>0.9833183689983095</v>
+        <v>0.9889822545353921</v>
       </c>
       <c r="L16">
-        <v>0.964527901178199</v>
+        <v>0.970028421181524</v>
       </c>
       <c r="M16">
-        <v>0.9159363818998683</v>
+        <v>0.9688325849425266</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9417548124552568</v>
+        <v>0.947856433855819</v>
       </c>
       <c r="D17">
-        <v>0.9723385250145965</v>
+        <v>0.9778203320317082</v>
       </c>
       <c r="E17">
-        <v>0.9536093289858144</v>
+        <v>0.958910957884853</v>
       </c>
       <c r="F17">
-        <v>0.9062489393547949</v>
+        <v>0.9583148995383313</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021130472800559</v>
+        <v>1.025474638391618</v>
       </c>
       <c r="J17">
-        <v>0.9716511365362445</v>
+        <v>0.9774771705145615</v>
       </c>
       <c r="K17">
-        <v>0.9868495893902955</v>
+        <v>0.9922287579193473</v>
       </c>
       <c r="L17">
-        <v>0.968482771919519</v>
+        <v>0.9736799385196168</v>
       </c>
       <c r="M17">
-        <v>0.922127996018309</v>
+        <v>0.9730955491175163</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9446516785002919</v>
+        <v>0.9505563509877584</v>
       </c>
       <c r="D18">
-        <v>0.9745891956502386</v>
+        <v>0.9799105621671732</v>
       </c>
       <c r="E18">
-        <v>0.9561141200741486</v>
+        <v>0.9612449517331817</v>
       </c>
       <c r="F18">
-        <v>0.9100755788442021</v>
+        <v>0.9610069255492907</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0222592668057</v>
+        <v>1.026506417786</v>
       </c>
       <c r="J18">
-        <v>0.9739820441427931</v>
+        <v>0.9796268127861613</v>
       </c>
       <c r="K18">
-        <v>0.9888614585285868</v>
+        <v>0.9940853162010832</v>
       </c>
       <c r="L18">
-        <v>0.9707359666924777</v>
+        <v>0.9757679493297975</v>
       </c>
       <c r="M18">
-        <v>0.9256507877812293</v>
+        <v>0.9755344783278752</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9456285231550431</v>
+        <v>0.9514682837024258</v>
       </c>
       <c r="D19">
-        <v>0.9753483471049224</v>
+        <v>0.9806167717640635</v>
       </c>
       <c r="E19">
-        <v>0.9569588802481086</v>
+        <v>0.9620334056482464</v>
       </c>
       <c r="F19">
-        <v>0.9113648496781328</v>
+        <v>0.9619164378825279</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022639555613791</v>
+        <v>1.026854617833264</v>
       </c>
       <c r="J19">
-        <v>0.9747678341260426</v>
+        <v>0.9803528002035162</v>
       </c>
       <c r="K19">
-        <v>0.9895397022062725</v>
+        <v>0.9947122971702087</v>
       </c>
       <c r="L19">
-        <v>0.9714955606312062</v>
+        <v>0.9764730698459688</v>
       </c>
       <c r="M19">
-        <v>0.9268376619470011</v>
+        <v>0.9763583232320796</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9412166559459115</v>
+        <v>0.9473556096320392</v>
       </c>
       <c r="D20">
-        <v>0.9719205170023275</v>
+        <v>0.9774327045228421</v>
       </c>
       <c r="E20">
-        <v>0.9531440720513038</v>
+        <v>0.958478069092042</v>
       </c>
       <c r="F20">
-        <v>0.9055375080908147</v>
+        <v>0.9578156577734637</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020920608025201</v>
+        <v>1.025283106243928</v>
       </c>
       <c r="J20">
-        <v>0.9712180189474647</v>
+        <v>0.9770783819816662</v>
       </c>
       <c r="K20">
-        <v>0.9864757584990201</v>
+        <v>0.9918843293531442</v>
       </c>
       <c r="L20">
-        <v>0.9680640964953567</v>
+        <v>0.9732925584865174</v>
       </c>
       <c r="M20">
-        <v>0.9214730453128112</v>
+        <v>0.972643169289941</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9260373684957823</v>
+        <v>0.9333322537068672</v>
       </c>
       <c r="D21">
-        <v>0.9601443275809849</v>
+        <v>0.9665926853211109</v>
       </c>
       <c r="E21">
-        <v>0.9400298977346615</v>
+        <v>0.9463650089435574</v>
       </c>
       <c r="F21">
-        <v>0.8853935726528418</v>
+        <v>0.9438514400472556</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014981676615826</v>
+        <v>1.019903968048631</v>
       </c>
       <c r="J21">
-        <v>0.9589895084012326</v>
+        <v>0.9659082874896339</v>
       </c>
       <c r="K21">
-        <v>0.9759222741257185</v>
+        <v>0.9822358684786685</v>
       </c>
       <c r="L21">
-        <v>0.9562440393753777</v>
+        <v>0.9624391107027449</v>
       </c>
       <c r="M21">
-        <v>0.9029284616149316</v>
+        <v>0.9599808059092675</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9157407363528048</v>
+        <v>0.9239446787053227</v>
       </c>
       <c r="D22">
-        <v>0.9521729243728373</v>
+        <v>0.959352117955686</v>
       </c>
       <c r="E22">
-        <v>0.9311450332329243</v>
+        <v>0.9382659473594867</v>
       </c>
       <c r="F22">
-        <v>0.8716339381874004</v>
+        <v>0.9345191330939298</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010934528383913</v>
+        <v>1.016288128508734</v>
       </c>
       <c r="J22">
-        <v>0.9506826816713984</v>
+        <v>0.9584281570939869</v>
       </c>
       <c r="K22">
-        <v>0.9687553571457116</v>
+        <v>0.9757742390299028</v>
       </c>
       <c r="L22">
-        <v>0.9482161266508917</v>
+        <v>0.9551682747866643</v>
       </c>
       <c r="M22">
-        <v>0.8902634836891662</v>
+        <v>0.95150983027437</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9212789225934287</v>
+        <v>0.9289803809384352</v>
       </c>
       <c r="D23">
-        <v>0.9564586778769004</v>
+        <v>0.9632344353510869</v>
       </c>
       <c r="E23">
-        <v>0.9359226961860017</v>
+        <v>0.9426094171262862</v>
       </c>
       <c r="F23">
-        <v>0.8790451559486505</v>
+        <v>0.939523646514655</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013113003336155</v>
+        <v>1.01822905010823</v>
       </c>
       <c r="J23">
-        <v>0.95515171536173</v>
+        <v>0.9624408125996112</v>
       </c>
       <c r="K23">
-        <v>0.9726108574749516</v>
+        <v>0.9792405311321065</v>
       </c>
       <c r="L23">
-        <v>0.9525349072888628</v>
+        <v>0.9590689015641489</v>
       </c>
       <c r="M23">
-        <v>0.8970847191399952</v>
+        <v>0.9560532501849154</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9414600325789694</v>
+        <v>0.947582073829577</v>
       </c>
       <c r="D24">
-        <v>0.9721095534549037</v>
+        <v>0.9776079790900677</v>
       </c>
       <c r="E24">
-        <v>0.9533544779946566</v>
+        <v>0.95867381175543</v>
       </c>
       <c r="F24">
-        <v>0.9058592683597168</v>
+        <v>0.9580414018240996</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021015523909303</v>
+        <v>1.02536971919297</v>
       </c>
       <c r="J24">
-        <v>0.9714138964743102</v>
+        <v>0.9772587087971575</v>
       </c>
       <c r="K24">
-        <v>0.9866448233969763</v>
+        <v>0.9920400757323913</v>
       </c>
       <c r="L24">
-        <v>0.9682534424511319</v>
+        <v>0.9734677274858</v>
       </c>
       <c r="M24">
-        <v>0.9217692613161469</v>
+        <v>0.9728477264859449</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9622655353438793</v>
+        <v>0.9671081209861591</v>
       </c>
       <c r="D25">
-        <v>0.9882927028044907</v>
+        <v>0.9927434836090671</v>
       </c>
       <c r="E25">
-        <v>0.9713549865939307</v>
+        <v>0.9755637100479808</v>
       </c>
       <c r="F25">
-        <v>0.9332458604888656</v>
+        <v>0.977534461444132</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029086260279646</v>
+        <v>1.032800129248395</v>
       </c>
       <c r="J25">
-        <v>0.9881331432716848</v>
+        <v>0.9927954975335902</v>
       </c>
       <c r="K25">
-        <v>1.001075519503731</v>
+        <v>1.005455501902972</v>
       </c>
       <c r="L25">
-        <v>0.9844148753307566</v>
+        <v>0.9885535951274055</v>
       </c>
       <c r="M25">
-        <v>0.9469771028076178</v>
+        <v>0.990491833580203</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9813768726311652</v>
+        <v>0.9943448194516373</v>
       </c>
       <c r="D2">
-        <v>1.003828651668715</v>
+        <v>1.016056106986202</v>
       </c>
       <c r="E2">
-        <v>0.9879185201182618</v>
+        <v>1.001508959218016</v>
       </c>
       <c r="F2">
-        <v>0.9918171986185896</v>
+        <v>1.015704220968171</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038172872586142</v>
+        <v>1.041288903564846</v>
       </c>
       <c r="J2">
-        <v>1.004129233186834</v>
+        <v>1.016696001764908</v>
       </c>
       <c r="K2">
-        <v>1.015234903756653</v>
+        <v>1.027296196425448</v>
       </c>
       <c r="L2">
-        <v>0.9995487753020755</v>
+        <v>1.012947311796356</v>
       </c>
       <c r="M2">
-        <v>1.003391722416735</v>
+        <v>1.026949022047417</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9911134112553652</v>
+        <v>0.9990819001649962</v>
       </c>
       <c r="D3">
-        <v>1.011402121976021</v>
+        <v>1.019660274568996</v>
       </c>
       <c r="E3">
-        <v>0.9963527889294288</v>
+        <v>1.005303487557238</v>
       </c>
       <c r="F3">
-        <v>1.00158308040045</v>
+        <v>1.020056103891783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041804045785621</v>
+        <v>1.042345381401965</v>
       </c>
       <c r="J3">
-        <v>1.011849300555448</v>
+        <v>1.019597624836913</v>
       </c>
       <c r="K3">
-        <v>1.021891159989934</v>
+        <v>1.030047629812032</v>
       </c>
       <c r="L3">
-        <v>1.007032550197164</v>
+        <v>1.015868956055523</v>
       </c>
       <c r="M3">
-        <v>1.012195745412871</v>
+        <v>1.030438636674194</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.997160201178304</v>
+        <v>1.002083699900214</v>
       </c>
       <c r="D4">
-        <v>1.016108499905863</v>
+        <v>1.021946194863558</v>
       </c>
       <c r="E4">
-        <v>1.001591635745978</v>
+        <v>1.00771429432001</v>
       </c>
       <c r="F4">
-        <v>1.007656664757671</v>
+        <v>1.022818817628981</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044042374688356</v>
+        <v>1.043003852525143</v>
       </c>
       <c r="J4">
-        <v>1.016636829316832</v>
+        <v>1.021434254192127</v>
       </c>
       <c r="K4">
-        <v>1.026016320564198</v>
+        <v>1.031786771996732</v>
       </c>
       <c r="L4">
-        <v>1.011670889009828</v>
+        <v>1.017720497752738</v>
       </c>
       <c r="M4">
-        <v>1.01766355064497</v>
+        <v>1.032649424518116</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996461495285895</v>
+        <v>1.003331038928063</v>
       </c>
       <c r="D5">
-        <v>1.018043907362716</v>
+        <v>1.022896486814989</v>
       </c>
       <c r="E5">
-        <v>1.003745502492166</v>
+        <v>1.008717515826199</v>
       </c>
       <c r="F5">
-        <v>1.010155611571034</v>
+        <v>1.023967959773076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04495848332981</v>
+        <v>1.043274782769772</v>
       </c>
       <c r="J5">
-        <v>1.018603322137433</v>
+        <v>1.022196892377641</v>
       </c>
       <c r="K5">
-        <v>1.027710062946706</v>
+        <v>1.032508332063123</v>
       </c>
       <c r="L5">
-        <v>1.01357546065254</v>
+        <v>1.018489864253304</v>
       </c>
       <c r="M5">
-        <v>1.019911427611555</v>
+        <v>1.033567898370288</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00006038225882</v>
+        <v>1.003539631271529</v>
       </c>
       <c r="D6">
-        <v>1.018366429823473</v>
+        <v>1.023055427048878</v>
       </c>
       <c r="E6">
-        <v>1.004104402034757</v>
+        <v>1.00888536872521</v>
       </c>
       <c r="F6">
-        <v>1.010572124906362</v>
+        <v>1.024160196871171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045110889995613</v>
+        <v>1.043319931286195</v>
       </c>
       <c r="J6">
-        <v>1.018930892961742</v>
+        <v>1.022324395568252</v>
       </c>
       <c r="K6">
-        <v>1.027992158790047</v>
+        <v>1.032628931906487</v>
       </c>
       <c r="L6">
-        <v>1.013892679071492</v>
+        <v>1.018618523821617</v>
       </c>
       <c r="M6">
-        <v>1.020285986196453</v>
+        <v>1.033721482829725</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971936334605518</v>
+        <v>1.002100423618713</v>
       </c>
       <c r="D7">
-        <v>1.016134526368745</v>
+        <v>1.021958934331341</v>
       </c>
       <c r="E7">
-        <v>1.001620601861526</v>
+        <v>1.007727739333283</v>
       </c>
       <c r="F7">
-        <v>1.007690264076834</v>
+        <v>1.022834220290894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0440547113885</v>
+        <v>1.043007495691256</v>
       </c>
       <c r="J7">
-        <v>1.016663282743772</v>
+        <v>1.021444481448953</v>
       </c>
       <c r="K7">
-        <v>1.026039107685187</v>
+        <v>1.031796450764775</v>
       </c>
       <c r="L7">
-        <v>1.011696512015518</v>
+        <v>1.017730813121431</v>
       </c>
       <c r="M7">
-        <v>1.01769378147588</v>
+        <v>1.032661739732592</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9847227651237139</v>
+        <v>0.9959592152486727</v>
       </c>
       <c r="D8">
-        <v>1.006430478751081</v>
+        <v>1.017283941616569</v>
       </c>
       <c r="E8">
-        <v>0.9908166448678434</v>
+        <v>1.002800784010141</v>
       </c>
       <c r="F8">
-        <v>0.9951713036376046</v>
+        <v>1.017186259686274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039424212822745</v>
+        <v>1.041651229818202</v>
       </c>
       <c r="J8">
-        <v>1.006783603640755</v>
+        <v>1.017685284946947</v>
       </c>
       <c r="K8">
-        <v>1.017524044002871</v>
+        <v>1.028234771930969</v>
       </c>
       <c r="L8">
-        <v>1.002122464426898</v>
+        <v>1.013942950085413</v>
       </c>
       <c r="M8">
-        <v>1.006417082416438</v>
+        <v>1.028138357619434</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9605680355864094</v>
+        <v>0.9846251497546672</v>
       </c>
       <c r="D9">
-        <v>0.9876691553036195</v>
+        <v>1.008675126466537</v>
       </c>
       <c r="E9">
-        <v>0.9699040125953134</v>
+        <v>0.9937602346073414</v>
       </c>
       <c r="F9">
-        <v>0.9709989126408002</v>
+        <v>1.0068048942786</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030320279480426</v>
+        <v>1.039062668397237</v>
       </c>
       <c r="J9">
-        <v>0.9875944286546297</v>
+        <v>1.010732765235567</v>
       </c>
       <c r="K9">
-        <v>1.000965510982603</v>
+        <v>1.021629006492412</v>
       </c>
       <c r="L9">
-        <v>0.9835050087511842</v>
+        <v>1.006955365441071</v>
       </c>
       <c r="M9">
-        <v>0.9845807156432289</v>
+        <v>1.019788523252092</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9425956307449201</v>
+        <v>0.9766844353411075</v>
       </c>
       <c r="D10">
-        <v>0.9737502208052968</v>
+        <v>1.00266137533182</v>
       </c>
       <c r="E10">
-        <v>0.9543647147827119</v>
+        <v>0.9874656508453559</v>
       </c>
       <c r="F10">
-        <v>0.9530725579955324</v>
+        <v>0.9995641088690973</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023460630071604</v>
+        <v>1.037194281728893</v>
       </c>
       <c r="J10">
-        <v>0.9732876448133999</v>
+        <v>1.005854654365167</v>
       </c>
       <c r="K10">
-        <v>0.9886101682336448</v>
+        <v>1.016982743511377</v>
       </c>
       <c r="L10">
-        <v>0.969609891486431</v>
+        <v>1.002064965763315</v>
       </c>
       <c r="M10">
-        <v>0.9683441473302554</v>
+        <v>1.013941237927382</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9342523385004092</v>
+        <v>0.9731450051533943</v>
       </c>
       <c r="D11">
-        <v>0.9673030574649231</v>
+        <v>0.9999861339874468</v>
       </c>
       <c r="E11">
-        <v>0.9471592483328501</v>
+        <v>0.9846701613896341</v>
       </c>
       <c r="F11">
-        <v>0.944766777662839</v>
+        <v>0.996345265536513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020257773013646</v>
+        <v>1.036349187649921</v>
       </c>
       <c r="J11">
-        <v>0.9666413442120818</v>
+        <v>1.003679289049836</v>
       </c>
       <c r="K11">
-        <v>0.9828691049239693</v>
+        <v>1.014908311805853</v>
       </c>
       <c r="L11">
-        <v>0.9631515466959761</v>
+        <v>0.9998870845990554</v>
       </c>
       <c r="M11">
-        <v>0.9608113069586505</v>
+        <v>1.011336435491036</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9310561551809059</v>
+        <v>0.9718142171509495</v>
       </c>
       <c r="D12">
-        <v>0.9648359116648936</v>
+        <v>0.9989811637518289</v>
       </c>
       <c r="E12">
-        <v>0.944400555777772</v>
+        <v>0.9836207012540698</v>
       </c>
       <c r="F12">
-        <v>0.9415876013296208</v>
+        <v>0.9951363899664495</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019028255364166</v>
+        <v>1.03602965758019</v>
       </c>
       <c r="J12">
-        <v>0.9640947840619423</v>
+        <v>1.002861278360075</v>
       </c>
       <c r="K12">
-        <v>0.9806692991001587</v>
+        <v>1.014127909121311</v>
       </c>
       <c r="L12">
-        <v>0.9606765329326961</v>
+        <v>0.9990685774613665</v>
       </c>
       <c r="M12">
-        <v>0.9579265069082428</v>
+        <v>1.010357366049345</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9317463795644939</v>
+        <v>0.9721004188973303</v>
       </c>
       <c r="D13">
-        <v>0.9653685696064316</v>
+        <v>0.999197252581565</v>
       </c>
       <c r="E13">
-        <v>0.9449962238740164</v>
+        <v>0.9838463258426096</v>
       </c>
       <c r="F13">
-        <v>0.9422740304019961</v>
+        <v>0.9953963094964101</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019293884182646</v>
+        <v>1.036098455847292</v>
       </c>
       <c r="J13">
-        <v>0.9646447372972843</v>
+        <v>1.003037204642818</v>
       </c>
       <c r="K13">
-        <v>0.9811443697471338</v>
+        <v>1.014295762475822</v>
       </c>
       <c r="L13">
-        <v>0.9612110557467599</v>
+        <v>0.9992445901282309</v>
       </c>
       <c r="M13">
-        <v>0.9585494422212975</v>
+        <v>1.010567911274249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9339902065567045</v>
+        <v>0.9730353354242925</v>
       </c>
       <c r="D14">
-        <v>0.9671006599279484</v>
+        <v>0.9999032960603633</v>
       </c>
       <c r="E14">
-        <v>0.9469329619885646</v>
+        <v>0.9845836424999068</v>
       </c>
       <c r="F14">
-        <v>0.9445059859222562</v>
+        <v>0.9962456141256175</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02015698549647</v>
+        <v>1.036322891173044</v>
       </c>
       <c r="J14">
-        <v>0.9664324984025964</v>
+        <v>1.003611878713178</v>
       </c>
       <c r="K14">
-        <v>0.9826886979376773</v>
+        <v>1.014844007561916</v>
       </c>
       <c r="L14">
-        <v>0.9629485777920659</v>
+        <v>0.999819624188479</v>
       </c>
       <c r="M14">
-        <v>0.9605746930068404</v>
+        <v>1.011255744006363</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.935359401595928</v>
+        <v>0.9736092085876354</v>
       </c>
       <c r="D15">
-        <v>0.9681579547179289</v>
+        <v>1.00033680233541</v>
       </c>
       <c r="E15">
-        <v>0.9481149918608222</v>
+        <v>0.9850364396123167</v>
       </c>
       <c r="F15">
-        <v>0.9458682886496036</v>
+        <v>0.996767120580733</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020683327523775</v>
+        <v>1.036460421489075</v>
       </c>
       <c r="J15">
-        <v>0.9675233463495447</v>
+        <v>1.003964615894067</v>
       </c>
       <c r="K15">
-        <v>0.9836310005873193</v>
+        <v>1.015180477552602</v>
       </c>
       <c r="L15">
-        <v>0.96400871052986</v>
+        <v>1.000172641738681</v>
       </c>
       <c r="M15">
-        <v>0.9618106380646536</v>
+        <v>1.011677994615367</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9431364951314769</v>
+        <v>0.9769171310024224</v>
       </c>
       <c r="D16">
-        <v>0.9741685001914893</v>
+        <v>1.002837374085227</v>
       </c>
       <c r="E16">
-        <v>0.9548320164842472</v>
+        <v>0.9876496562720494</v>
       </c>
       <c r="F16">
-        <v>0.9536113376509316</v>
+        <v>0.9997759139813566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023667899199991</v>
+        <v>1.037249590688421</v>
       </c>
       <c r="J16">
-        <v>0.9737184222214998</v>
+        <v>1.005997654540604</v>
       </c>
       <c r="K16">
-        <v>0.9889822545353921</v>
+        <v>1.017119059425828</v>
       </c>
       <c r="L16">
-        <v>0.970028421181524</v>
+        <v>1.002208193393463</v>
       </c>
       <c r="M16">
-        <v>0.9688325849425266</v>
+        <v>1.014112525903714</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.947856433855819</v>
+        <v>0.9789644320447766</v>
       </c>
       <c r="D17">
-        <v>0.9778203320317082</v>
+        <v>1.004386457002834</v>
       </c>
       <c r="E17">
-        <v>0.958910957884853</v>
+        <v>0.9892697419195342</v>
       </c>
       <c r="F17">
-        <v>0.9583148995383313</v>
+        <v>1.001640404555914</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025474638391618</v>
+        <v>1.037734818263111</v>
       </c>
       <c r="J17">
-        <v>0.9774771705145615</v>
+        <v>1.007255686586636</v>
       </c>
       <c r="K17">
-        <v>0.9922287579193473</v>
+        <v>1.018318010394236</v>
       </c>
       <c r="L17">
-        <v>0.9736799385196168</v>
+        <v>1.003468564084933</v>
       </c>
       <c r="M17">
-        <v>0.9730955491175163</v>
+        <v>1.015619732542673</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505563509877584</v>
+        <v>0.9801489029700007</v>
       </c>
       <c r="D18">
-        <v>0.9799105621671732</v>
+        <v>1.005283176543564</v>
       </c>
       <c r="E18">
-        <v>0.9612449517331817</v>
+        <v>0.9902080088063302</v>
       </c>
       <c r="F18">
-        <v>0.9610069255492907</v>
+        <v>1.002719920495001</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026506417786</v>
+        <v>1.038014377672228</v>
       </c>
       <c r="J18">
-        <v>0.9796268127861613</v>
+        <v>1.007983421823165</v>
       </c>
       <c r="K18">
-        <v>0.9940853162010832</v>
+        <v>1.019011334393382</v>
       </c>
       <c r="L18">
-        <v>0.9757679493297975</v>
+        <v>1.004197932885125</v>
       </c>
       <c r="M18">
-        <v>0.9755344783278752</v>
+        <v>1.016491869152311</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9514682837024258</v>
+        <v>0.9805511605566553</v>
       </c>
       <c r="D19">
-        <v>0.9806167717640635</v>
+        <v>1.00558779194816</v>
       </c>
       <c r="E19">
-        <v>0.9620334056482464</v>
+        <v>0.9905268140951796</v>
       </c>
       <c r="F19">
-        <v>0.9619164378825279</v>
+        <v>1.003086669474719</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026854617833264</v>
+        <v>1.038109118370391</v>
       </c>
       <c r="J19">
-        <v>0.9803528002035162</v>
+        <v>1.0082305485795</v>
       </c>
       <c r="K19">
-        <v>0.9947122971702087</v>
+        <v>1.019246735219351</v>
       </c>
       <c r="L19">
-        <v>0.9764730698459688</v>
+        <v>1.004445661871968</v>
       </c>
       <c r="M19">
-        <v>0.9763583232320796</v>
+        <v>1.016788076227577</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9473556096320392</v>
+        <v>0.9787457841201894</v>
       </c>
       <c r="D20">
-        <v>0.9774327045228421</v>
+        <v>1.004220965909671</v>
       </c>
       <c r="E20">
-        <v>0.958478069092042</v>
+        <v>0.9890966193788965</v>
       </c>
       <c r="F20">
-        <v>0.9578156577734637</v>
+        <v>1.001441195786575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025283106243928</v>
+        <v>1.037683117839386</v>
       </c>
       <c r="J20">
-        <v>0.9770783819816662</v>
+        <v>1.007121341311636</v>
       </c>
       <c r="K20">
-        <v>0.9918843293531442</v>
+        <v>1.018189998567032</v>
       </c>
       <c r="L20">
-        <v>0.9732925584865174</v>
+        <v>1.003333939907622</v>
       </c>
       <c r="M20">
-        <v>0.972643169289941</v>
+        <v>1.015458750753684</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9333322537068672</v>
+        <v>0.9727604774705079</v>
       </c>
       <c r="D21">
-        <v>0.9665926853211109</v>
+        <v>0.9996956995813631</v>
       </c>
       <c r="E21">
-        <v>0.9463650089435574</v>
+        <v>0.984366832236203</v>
       </c>
       <c r="F21">
-        <v>0.9438514400472556</v>
+        <v>0.9959958868555779</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019903968048631</v>
+        <v>1.036256957551674</v>
       </c>
       <c r="J21">
-        <v>0.9659082874896339</v>
+        <v>1.003442931317809</v>
       </c>
       <c r="K21">
-        <v>0.9822358684786685</v>
+        <v>1.014682839321851</v>
       </c>
       <c r="L21">
-        <v>0.9624391107027449</v>
+        <v>0.9996505585519093</v>
       </c>
       <c r="M21">
-        <v>0.9599808059092675</v>
+        <v>1.011053517550539</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9239446787053227</v>
+        <v>0.9689037098548947</v>
       </c>
       <c r="D22">
-        <v>0.959352117955686</v>
+        <v>0.996784992281846</v>
       </c>
       <c r="E22">
-        <v>0.9382659473594867</v>
+        <v>0.9813285351777444</v>
       </c>
       <c r="F22">
-        <v>0.9345191330939298</v>
+        <v>0.9924951363388687</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016288128508734</v>
+        <v>1.03532761950164</v>
       </c>
       <c r="J22">
-        <v>0.9584281570939869</v>
+        <v>1.001072133871213</v>
       </c>
       <c r="K22">
-        <v>0.9757742390299028</v>
+        <v>1.01242040928751</v>
       </c>
       <c r="L22">
-        <v>0.9551682747866643</v>
+        <v>0.9972791791856227</v>
       </c>
       <c r="M22">
-        <v>0.95150983027437</v>
+        <v>1.008216746645152</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9289803809384352</v>
+        <v>0.9709574447300158</v>
       </c>
       <c r="D23">
-        <v>0.9632344353510869</v>
+        <v>0.9983344196893122</v>
       </c>
       <c r="E23">
-        <v>0.9426094171262862</v>
+        <v>0.982945515355839</v>
       </c>
       <c r="F23">
-        <v>0.939523646514655</v>
+        <v>0.9943585040117449</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01822905010823</v>
+        <v>1.035823447003028</v>
       </c>
       <c r="J23">
-        <v>0.9624408125996112</v>
+        <v>1.002334616697612</v>
       </c>
       <c r="K23">
-        <v>0.9792405311321065</v>
+        <v>1.013625366015148</v>
       </c>
       <c r="L23">
-        <v>0.9590689015641489</v>
+        <v>0.9985417234350776</v>
       </c>
       <c r="M23">
-        <v>0.9560532501849154</v>
+        <v>1.00972713031794</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.947582073829577</v>
+        <v>0.9788446115694608</v>
       </c>
       <c r="D24">
-        <v>0.9776079790900677</v>
+        <v>1.004295765290456</v>
       </c>
       <c r="E24">
-        <v>0.95867381175543</v>
+        <v>0.9891748666703417</v>
       </c>
       <c r="F24">
-        <v>0.9580414018240996</v>
+        <v>1.00153123435633</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02536971919297</v>
+        <v>1.037706489730231</v>
       </c>
       <c r="J24">
-        <v>0.9772587087971575</v>
+        <v>1.007182064829372</v>
       </c>
       <c r="K24">
-        <v>0.9920400757323913</v>
+        <v>1.018247860121177</v>
       </c>
       <c r="L24">
-        <v>0.9734677274858</v>
+        <v>1.003394788617831</v>
       </c>
       <c r="M24">
-        <v>0.9728477264859449</v>
+        <v>1.015531513058497</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9671081209861591</v>
+        <v>0.9876199691556808</v>
       </c>
       <c r="D25">
-        <v>0.9927434836090671</v>
+        <v>1.010947154774795</v>
       </c>
       <c r="E25">
-        <v>0.9755637100479808</v>
+        <v>0.9961425479601282</v>
       </c>
       <c r="F25">
-        <v>0.977534461444132</v>
+        <v>1.009542672267825</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032800129248395</v>
+        <v>1.039756315192291</v>
       </c>
       <c r="J25">
-        <v>0.9927954975335902</v>
+        <v>1.012571276413829</v>
       </c>
       <c r="K25">
-        <v>1.005455501902972</v>
+        <v>1.023377874341757</v>
       </c>
       <c r="L25">
-        <v>0.9885535951274055</v>
+        <v>1.008801042511183</v>
       </c>
       <c r="M25">
-        <v>0.990491833580203</v>
+        <v>1.021994634898115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9943448194516373</v>
+        <v>1.028368881697471</v>
       </c>
       <c r="D2">
-        <v>1.016056106986202</v>
+        <v>1.03675252746226</v>
       </c>
       <c r="E2">
-        <v>1.001508959218016</v>
+        <v>1.028335307673828</v>
       </c>
       <c r="F2">
-        <v>1.015704220968171</v>
+        <v>1.043700748209906</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041288903564846</v>
+        <v>1.032044799016489</v>
       </c>
       <c r="J2">
-        <v>1.016696001764908</v>
+        <v>1.033521584377905</v>
       </c>
       <c r="K2">
-        <v>1.027296196425448</v>
+        <v>1.039545370101956</v>
       </c>
       <c r="L2">
-        <v>1.012947311796356</v>
+        <v>1.031152423627581</v>
       </c>
       <c r="M2">
-        <v>1.026949022047417</v>
+        <v>1.046473873974521</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9990819001649962</v>
+        <v>1.029373999598164</v>
       </c>
       <c r="D3">
-        <v>1.019660274568996</v>
+        <v>1.03753676966259</v>
       </c>
       <c r="E3">
-        <v>1.005303487557238</v>
+        <v>1.029190568526886</v>
       </c>
       <c r="F3">
-        <v>1.020056103891783</v>
+        <v>1.044677412616198</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042345381401965</v>
+        <v>1.032202851175256</v>
       </c>
       <c r="J3">
-        <v>1.019597624836913</v>
+        <v>1.034166996776917</v>
       </c>
       <c r="K3">
-        <v>1.030047629812032</v>
+        <v>1.040139346069516</v>
       </c>
       <c r="L3">
-        <v>1.015868956055523</v>
+        <v>1.031815470601121</v>
       </c>
       <c r="M3">
-        <v>1.030438636674194</v>
+        <v>1.047261194033815</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002083699900214</v>
+        <v>1.030024806538998</v>
       </c>
       <c r="D4">
-        <v>1.021946194863558</v>
+        <v>1.038044376230691</v>
       </c>
       <c r="E4">
-        <v>1.00771429432001</v>
+        <v>1.029744717826858</v>
       </c>
       <c r="F4">
-        <v>1.022818817628981</v>
+        <v>1.045310023185287</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043003852525143</v>
+        <v>1.032303792312888</v>
       </c>
       <c r="J4">
-        <v>1.021434254192127</v>
+        <v>1.034584474642875</v>
       </c>
       <c r="K4">
-        <v>1.031786771996732</v>
+        <v>1.040523181880791</v>
       </c>
       <c r="L4">
-        <v>1.017720497752738</v>
+        <v>1.032244605102927</v>
       </c>
       <c r="M4">
-        <v>1.032649424518116</v>
+        <v>1.047770669563352</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003331038928063</v>
+        <v>1.03029850779921</v>
       </c>
       <c r="D5">
-        <v>1.022896486814989</v>
+        <v>1.038257808648254</v>
       </c>
       <c r="E5">
-        <v>1.008717515826199</v>
+        <v>1.0299778578884</v>
       </c>
       <c r="F5">
-        <v>1.023967959773076</v>
+        <v>1.04557612562468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043274782769772</v>
+        <v>1.032345909297255</v>
       </c>
       <c r="J5">
-        <v>1.022196892377641</v>
+        <v>1.034759946366277</v>
       </c>
       <c r="K5">
-        <v>1.032508332063123</v>
+        <v>1.04068442435848</v>
       </c>
       <c r="L5">
-        <v>1.018489864253304</v>
+        <v>1.03242503607676</v>
       </c>
       <c r="M5">
-        <v>1.033567898370288</v>
+        <v>1.047984858531301</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003539631271529</v>
+        <v>1.030344469411926</v>
       </c>
       <c r="D6">
-        <v>1.023055427048878</v>
+        <v>1.03829364688662</v>
       </c>
       <c r="E6">
-        <v>1.00888536872521</v>
+        <v>1.030017013402576</v>
       </c>
       <c r="F6">
-        <v>1.024160196871171</v>
+        <v>1.04562081433344</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043319931286195</v>
+        <v>1.032352962223883</v>
       </c>
       <c r="J6">
-        <v>1.022324395568252</v>
+        <v>1.03478940670953</v>
       </c>
       <c r="K6">
-        <v>1.032628931906487</v>
+        <v>1.040711490494733</v>
       </c>
       <c r="L6">
-        <v>1.018618523821617</v>
+        <v>1.032455332546184</v>
       </c>
       <c r="M6">
-        <v>1.033721482829725</v>
+        <v>1.048020822093474</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002100423618713</v>
+        <v>1.030028463348434</v>
       </c>
       <c r="D7">
-        <v>1.021958934331341</v>
+        <v>1.038047227990538</v>
       </c>
       <c r="E7">
-        <v>1.007727739333283</v>
+        <v>1.029747832366743</v>
       </c>
       <c r="F7">
-        <v>1.022834220290894</v>
+        <v>1.045313578259438</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043007495691256</v>
+        <v>1.032304356334826</v>
       </c>
       <c r="J7">
-        <v>1.021444481448953</v>
+        <v>1.034586819446918</v>
       </c>
       <c r="K7">
-        <v>1.031796450764775</v>
+        <v>1.040525336891529</v>
       </c>
       <c r="L7">
-        <v>1.017730813121431</v>
+        <v>1.032247015941753</v>
       </c>
       <c r="M7">
-        <v>1.032661739732592</v>
+        <v>1.047773531546597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9959592152486727</v>
+        <v>1.028708476953156</v>
       </c>
       <c r="D8">
-        <v>1.017283941616569</v>
+        <v>1.037017534151437</v>
       </c>
       <c r="E8">
-        <v>1.002800784010141</v>
+        <v>1.028624193565721</v>
       </c>
       <c r="F8">
-        <v>1.017186259686274</v>
+        <v>1.044030682654666</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041651229818202</v>
+        <v>1.032098488420482</v>
       </c>
       <c r="J8">
-        <v>1.017685284946947</v>
+        <v>1.033739734528176</v>
       </c>
       <c r="K8">
-        <v>1.028234771930969</v>
+        <v>1.039746211379948</v>
       </c>
       <c r="L8">
-        <v>1.013942950085413</v>
+        <v>1.03137648251335</v>
       </c>
       <c r="M8">
-        <v>1.028138357619434</v>
+        <v>1.046739946345816</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9846251497546672</v>
+        <v>1.026385797786912</v>
       </c>
       <c r="D9">
-        <v>1.008675126466537</v>
+        <v>1.035204277350283</v>
       </c>
       <c r="E9">
-        <v>0.9937602346073414</v>
+        <v>1.026649900085692</v>
       </c>
       <c r="F9">
-        <v>1.0068048942786</v>
+        <v>1.041775031529055</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039062668397237</v>
+        <v>1.03172556330165</v>
       </c>
       <c r="J9">
-        <v>1.010732765235567</v>
+        <v>1.032245969044679</v>
       </c>
       <c r="K9">
-        <v>1.021629006492412</v>
+        <v>1.038369453064372</v>
       </c>
       <c r="L9">
-        <v>1.006955365441071</v>
+        <v>1.029843283843143</v>
       </c>
       <c r="M9">
-        <v>1.019788523252092</v>
+        <v>1.044918884786762</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9766844353411075</v>
+        <v>1.024839597962745</v>
       </c>
       <c r="D10">
-        <v>1.00266137533182</v>
+        <v>1.033996310673444</v>
       </c>
       <c r="E10">
-        <v>0.9874656508453559</v>
+        <v>1.025337599971992</v>
       </c>
       <c r="F10">
-        <v>0.9995641088690973</v>
+        <v>1.040274671176939</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037194281728893</v>
+        <v>1.031470142858967</v>
       </c>
       <c r="J10">
-        <v>1.005854654365167</v>
+        <v>1.031249433578329</v>
       </c>
       <c r="K10">
-        <v>1.016982743511377</v>
+        <v>1.037449083502132</v>
       </c>
       <c r="L10">
-        <v>1.002064965763315</v>
+        <v>1.028821731659435</v>
       </c>
       <c r="M10">
-        <v>1.013941237927382</v>
+        <v>1.04370506605795</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9731450051533943</v>
+        <v>1.024170616518218</v>
       </c>
       <c r="D11">
-        <v>0.9999861339874468</v>
+        <v>1.033473468291537</v>
       </c>
       <c r="E11">
-        <v>0.9846701613896341</v>
+        <v>1.024770296240013</v>
       </c>
       <c r="F11">
-        <v>0.996345265536513</v>
+        <v>1.039625819357558</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036349187649921</v>
+        <v>1.031357934775588</v>
       </c>
       <c r="J11">
-        <v>1.003679289049836</v>
+        <v>1.030817767428594</v>
       </c>
       <c r="K11">
-        <v>1.014908311805853</v>
+        <v>1.037049963460744</v>
       </c>
       <c r="L11">
-        <v>0.9998870845990554</v>
+        <v>1.02837953558615</v>
       </c>
       <c r="M11">
-        <v>1.011336435491036</v>
+        <v>1.043179533237487</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9718142171509495</v>
+        <v>1.023922207527438</v>
       </c>
       <c r="D12">
-        <v>0.9989811637518289</v>
+        <v>1.033279294753137</v>
       </c>
       <c r="E12">
-        <v>0.9836207012540698</v>
+        <v>1.024559715216829</v>
       </c>
       <c r="F12">
-        <v>0.9951363899664495</v>
+        <v>1.039384930180451</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03602965758019</v>
+        <v>1.031316014321759</v>
       </c>
       <c r="J12">
-        <v>1.002861278360075</v>
+        <v>1.030657404064482</v>
       </c>
       <c r="K12">
-        <v>1.014127909121311</v>
+        <v>1.036901624060661</v>
       </c>
       <c r="L12">
-        <v>0.9990685774613665</v>
+        <v>1.028215306461055</v>
       </c>
       <c r="M12">
-        <v>1.010357366049345</v>
+        <v>1.042984336630109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9721004188973303</v>
+        <v>1.023975488449999</v>
       </c>
       <c r="D13">
-        <v>0.999197252581565</v>
+        <v>1.033320944107484</v>
       </c>
       <c r="E13">
-        <v>0.9838463258426096</v>
+        <v>1.024604879171865</v>
       </c>
       <c r="F13">
-        <v>0.9953963094964101</v>
+        <v>1.039436596132488</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036098455847292</v>
+        <v>1.031325017317561</v>
       </c>
       <c r="J13">
-        <v>1.003037204642818</v>
+        <v>1.03069180359586</v>
       </c>
       <c r="K13">
-        <v>1.014295762475822</v>
+        <v>1.036933447355234</v>
       </c>
       <c r="L13">
-        <v>0.9992445901282309</v>
+        <v>1.02825053315011</v>
       </c>
       <c r="M13">
-        <v>1.010567911274249</v>
+        <v>1.043026206513031</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9730353354242925</v>
+        <v>1.024150081309047</v>
       </c>
       <c r="D14">
-        <v>0.9999032960603633</v>
+        <v>1.033457417158671</v>
       </c>
       <c r="E14">
-        <v>0.9845836424999068</v>
+        <v>1.024752886668094</v>
       </c>
       <c r="F14">
-        <v>0.9962456141256175</v>
+        <v>1.039605904862583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036322891173044</v>
+        <v>1.031354474539408</v>
       </c>
       <c r="J14">
-        <v>1.003611878713178</v>
+        <v>1.030804512215123</v>
       </c>
       <c r="K14">
-        <v>1.014844007561916</v>
+        <v>1.037037703479368</v>
       </c>
       <c r="L14">
-        <v>0.999819624188479</v>
+        <v>1.028365959898601</v>
       </c>
       <c r="M14">
-        <v>1.011255744006363</v>
+        <v>1.043163398022536</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9736092085876354</v>
+        <v>1.024257664410968</v>
       </c>
       <c r="D15">
-        <v>1.00033680233541</v>
+        <v>1.033541507167938</v>
       </c>
       <c r="E15">
-        <v>0.9850364396123167</v>
+        <v>1.024844097663895</v>
       </c>
       <c r="F15">
-        <v>0.996767120580733</v>
+        <v>1.039710237923685</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036460421489075</v>
+        <v>1.031372592133688</v>
       </c>
       <c r="J15">
-        <v>1.003964615894067</v>
+        <v>1.030873952642788</v>
       </c>
       <c r="K15">
-        <v>1.015180477552602</v>
+        <v>1.037101927421978</v>
       </c>
       <c r="L15">
-        <v>1.000172641738681</v>
+        <v>1.028437081089731</v>
       </c>
       <c r="M15">
-        <v>1.011677994615367</v>
+        <v>1.043247927548153</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9769171310024224</v>
+        <v>1.024884007326327</v>
       </c>
       <c r="D16">
-        <v>1.002837374085227</v>
+        <v>1.034031014625463</v>
       </c>
       <c r="E16">
-        <v>0.9876496562720494</v>
+        <v>1.025375269749178</v>
       </c>
       <c r="F16">
-        <v>0.9997759139813566</v>
+        <v>1.040317750570225</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037249590688421</v>
+        <v>1.031477555867851</v>
       </c>
       <c r="J16">
-        <v>1.005997654540604</v>
+        <v>1.031278078530242</v>
       </c>
       <c r="K16">
-        <v>1.017119059425828</v>
+        <v>1.037475559338267</v>
       </c>
       <c r="L16">
-        <v>1.002208193393463</v>
+        <v>1.028851081827209</v>
       </c>
       <c r="M16">
-        <v>1.014112525903714</v>
+        <v>1.043739945250767</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9789644320447766</v>
+        <v>1.025277038734184</v>
       </c>
       <c r="D17">
-        <v>1.004386457002834</v>
+        <v>1.034338128085611</v>
       </c>
       <c r="E17">
-        <v>0.9892697419195342</v>
+        <v>1.025708709884793</v>
       </c>
       <c r="F17">
-        <v>1.001640404555914</v>
+        <v>1.040699045846996</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037734818263111</v>
+        <v>1.031542966266989</v>
       </c>
       <c r="J17">
-        <v>1.007255686586636</v>
+        <v>1.031531533727101</v>
       </c>
       <c r="K17">
-        <v>1.018318010394236</v>
+        <v>1.037709770307701</v>
       </c>
       <c r="L17">
-        <v>1.003468564084933</v>
+        <v>1.029110812293812</v>
       </c>
       <c r="M17">
-        <v>1.015619732542673</v>
+        <v>1.044048591280732</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9801489029700007</v>
+        <v>1.025506338732818</v>
       </c>
       <c r="D18">
-        <v>1.005283176543564</v>
+        <v>1.034517282858681</v>
       </c>
       <c r="E18">
-        <v>0.9902080088063302</v>
+        <v>1.025903289624391</v>
       </c>
       <c r="F18">
-        <v>1.002719920495001</v>
+        <v>1.040921527416165</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038014377672228</v>
+        <v>1.031580963739994</v>
       </c>
       <c r="J18">
-        <v>1.007983421823165</v>
+        <v>1.031679354400668</v>
       </c>
       <c r="K18">
-        <v>1.019011334393382</v>
+        <v>1.037846324243439</v>
       </c>
       <c r="L18">
-        <v>1.004197932885125</v>
+        <v>1.029262322405849</v>
       </c>
       <c r="M18">
-        <v>1.016491869152311</v>
+        <v>1.044228624893824</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9805511605566553</v>
+        <v>1.02558453281817</v>
       </c>
       <c r="D19">
-        <v>1.00558779194816</v>
+        <v>1.034578373482767</v>
       </c>
       <c r="E19">
-        <v>0.9905268140951796</v>
+        <v>1.025969651480271</v>
       </c>
       <c r="F19">
-        <v>1.003086669474719</v>
+        <v>1.040997401164866</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038109118370391</v>
+        <v>1.031593893541256</v>
       </c>
       <c r="J19">
-        <v>1.0082305485795</v>
+        <v>1.031729754788909</v>
       </c>
       <c r="K19">
-        <v>1.019246735219351</v>
+        <v>1.03789287585341</v>
       </c>
       <c r="L19">
-        <v>1.004445661871968</v>
+        <v>1.029313985744307</v>
       </c>
       <c r="M19">
-        <v>1.016788076227577</v>
+        <v>1.044290012628002</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9787457841201894</v>
+        <v>1.025234864861443</v>
       </c>
       <c r="D20">
-        <v>1.004220965909671</v>
+        <v>1.034305175570186</v>
       </c>
       <c r="E20">
-        <v>0.9890966193788965</v>
+        <v>1.02567292562346</v>
       </c>
       <c r="F20">
-        <v>1.001441195786575</v>
+        <v>1.040658128347205</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037683117839386</v>
+        <v>1.031535964411263</v>
       </c>
       <c r="J20">
-        <v>1.007121341311636</v>
+        <v>1.031504341976893</v>
       </c>
       <c r="K20">
-        <v>1.018189998567032</v>
+        <v>1.037684647614534</v>
       </c>
       <c r="L20">
-        <v>1.003333939907622</v>
+        <v>1.029082944247792</v>
       </c>
       <c r="M20">
-        <v>1.015458750753684</v>
+        <v>1.044015475896612</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9727604774705079</v>
+        <v>1.024098665838249</v>
       </c>
       <c r="D21">
-        <v>0.9996956995813631</v>
+        <v>1.033417228315902</v>
       </c>
       <c r="E21">
-        <v>0.984366832236203</v>
+        <v>1.024709298253575</v>
       </c>
       <c r="F21">
-        <v>0.9959958868555779</v>
+        <v>1.039556044250606</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036256957551674</v>
+        <v>1.031345806781622</v>
       </c>
       <c r="J21">
-        <v>1.003442931317809</v>
+        <v>1.030771322974828</v>
       </c>
       <c r="K21">
-        <v>1.014682839321851</v>
+        <v>1.037007005084534</v>
       </c>
       <c r="L21">
-        <v>0.9996505585519093</v>
+        <v>1.028331968979763</v>
       </c>
       <c r="M21">
-        <v>1.011053517550539</v>
+        <v>1.043122998268205</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9689037098548947</v>
+        <v>1.023384758382938</v>
       </c>
       <c r="D22">
-        <v>0.996784992281846</v>
+        <v>1.032859134419642</v>
       </c>
       <c r="E22">
-        <v>0.9813285351777444</v>
+        <v>1.024104242838181</v>
       </c>
       <c r="F22">
-        <v>0.9924951363388687</v>
+        <v>1.038863833970388</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03532761950164</v>
+        <v>1.031224850811751</v>
       </c>
       <c r="J22">
-        <v>1.001072133871213</v>
+        <v>1.030310310146395</v>
       </c>
       <c r="K22">
-        <v>1.01242040928751</v>
+        <v>1.036580433000307</v>
       </c>
       <c r="L22">
-        <v>0.9972791791856227</v>
+        <v>1.027859929745268</v>
       </c>
       <c r="M22">
-        <v>1.008216746645152</v>
+        <v>1.042561918603052</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9709574447300158</v>
+        <v>1.02376316993465</v>
       </c>
       <c r="D23">
-        <v>0.9983344196893122</v>
+        <v>1.033154971825678</v>
       </c>
       <c r="E23">
-        <v>0.982945515355839</v>
+        <v>1.024424916545274</v>
       </c>
       <c r="F23">
-        <v>0.9943585040117449</v>
+        <v>1.03923071975992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035823447003028</v>
+        <v>1.031289104077685</v>
       </c>
       <c r="J23">
-        <v>1.002334616697612</v>
+        <v>1.030554714315767</v>
       </c>
       <c r="K23">
-        <v>1.013625366015148</v>
+        <v>1.036806615138076</v>
       </c>
       <c r="L23">
-        <v>0.9985417234350776</v>
+        <v>1.02811015422714</v>
       </c>
       <c r="M23">
-        <v>1.00972713031794</v>
+        <v>1.042859351911092</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9788446115694608</v>
+        <v>1.025253921260221</v>
       </c>
       <c r="D24">
-        <v>1.004295765290456</v>
+        <v>1.034320065329635</v>
       </c>
       <c r="E24">
-        <v>0.9891748666703417</v>
+        <v>1.025689094713596</v>
       </c>
       <c r="F24">
-        <v>1.00153123435633</v>
+        <v>1.040676616961626</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037706489730231</v>
+        <v>1.031539128728367</v>
       </c>
       <c r="J24">
-        <v>1.007182064829372</v>
+        <v>1.031516628806128</v>
       </c>
       <c r="K24">
-        <v>1.018247860121177</v>
+        <v>1.037695999655453</v>
       </c>
       <c r="L24">
-        <v>1.003394788617831</v>
+        <v>1.029095536575849</v>
       </c>
       <c r="M24">
-        <v>1.015531513058497</v>
+        <v>1.044030439295977</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9876199691556808</v>
+        <v>1.026985871177855</v>
       </c>
       <c r="D25">
-        <v>1.010947154774795</v>
+        <v>1.035672899085462</v>
       </c>
       <c r="E25">
-        <v>0.9961425479601282</v>
+        <v>1.027159620203238</v>
       </c>
       <c r="F25">
-        <v>1.009542672267825</v>
+        <v>1.042357575457506</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039756315192291</v>
+        <v>1.031823174562657</v>
       </c>
       <c r="J25">
-        <v>1.012571276413829</v>
+        <v>1.032632268350838</v>
       </c>
       <c r="K25">
-        <v>1.023377874341757</v>
+        <v>1.038725827864696</v>
       </c>
       <c r="L25">
-        <v>1.008801042511183</v>
+        <v>1.030239553651163</v>
       </c>
       <c r="M25">
-        <v>1.021994634898115</v>
+        <v>1.045389637757078</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028368881697471</v>
+        <v>0.9943448194516367</v>
       </c>
       <c r="D2">
-        <v>1.03675252746226</v>
+        <v>1.016056106986201</v>
       </c>
       <c r="E2">
-        <v>1.028335307673828</v>
+        <v>1.001508959218015</v>
       </c>
       <c r="F2">
-        <v>1.043700748209906</v>
+        <v>1.01570422096817</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032044799016489</v>
+        <v>1.041288903564846</v>
       </c>
       <c r="J2">
-        <v>1.033521584377905</v>
+        <v>1.016696001764907</v>
       </c>
       <c r="K2">
-        <v>1.039545370101956</v>
+        <v>1.027296196425447</v>
       </c>
       <c r="L2">
-        <v>1.031152423627581</v>
+        <v>1.012947311796355</v>
       </c>
       <c r="M2">
-        <v>1.046473873974521</v>
+        <v>1.026949022047416</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029373999598164</v>
+        <v>0.9990819001649952</v>
       </c>
       <c r="D3">
-        <v>1.03753676966259</v>
+        <v>1.019660274568995</v>
       </c>
       <c r="E3">
-        <v>1.029190568526886</v>
+        <v>1.005303487557236</v>
       </c>
       <c r="F3">
-        <v>1.044677412616198</v>
+        <v>1.020056103891781</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032202851175256</v>
+        <v>1.042345381401965</v>
       </c>
       <c r="J3">
-        <v>1.034166996776917</v>
+        <v>1.019597624836912</v>
       </c>
       <c r="K3">
-        <v>1.040139346069516</v>
+        <v>1.030047629812031</v>
       </c>
       <c r="L3">
-        <v>1.031815470601121</v>
+        <v>1.015868956055522</v>
       </c>
       <c r="M3">
-        <v>1.047261194033815</v>
+        <v>1.030438636674193</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030024806538998</v>
+        <v>1.002083699900213</v>
       </c>
       <c r="D4">
-        <v>1.038044376230691</v>
+        <v>1.021946194863557</v>
       </c>
       <c r="E4">
-        <v>1.029744717826858</v>
+        <v>1.007714294320009</v>
       </c>
       <c r="F4">
-        <v>1.045310023185287</v>
+        <v>1.02281881762898</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032303792312888</v>
+        <v>1.043003852525142</v>
       </c>
       <c r="J4">
-        <v>1.034584474642875</v>
+        <v>1.021434254192126</v>
       </c>
       <c r="K4">
-        <v>1.040523181880791</v>
+        <v>1.031786771996731</v>
       </c>
       <c r="L4">
-        <v>1.032244605102927</v>
+        <v>1.017720497752737</v>
       </c>
       <c r="M4">
-        <v>1.047770669563352</v>
+        <v>1.032649424518114</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03029850779921</v>
+        <v>1.003331038928064</v>
       </c>
       <c r="D5">
-        <v>1.038257808648254</v>
+        <v>1.022896486814989</v>
       </c>
       <c r="E5">
-        <v>1.0299778578884</v>
+        <v>1.008717515826199</v>
       </c>
       <c r="F5">
-        <v>1.04557612562468</v>
+        <v>1.023967959773076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032345909297255</v>
+        <v>1.043274782769772</v>
       </c>
       <c r="J5">
-        <v>1.034759946366277</v>
+        <v>1.022196892377641</v>
       </c>
       <c r="K5">
-        <v>1.04068442435848</v>
+        <v>1.032508332063123</v>
       </c>
       <c r="L5">
-        <v>1.03242503607676</v>
+        <v>1.018489864253304</v>
       </c>
       <c r="M5">
-        <v>1.047984858531301</v>
+        <v>1.033567898370288</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030344469411926</v>
+        <v>1.00353963127153</v>
       </c>
       <c r="D6">
-        <v>1.03829364688662</v>
+        <v>1.023055427048879</v>
       </c>
       <c r="E6">
-        <v>1.030017013402576</v>
+        <v>1.00888536872521</v>
       </c>
       <c r="F6">
-        <v>1.04562081433344</v>
+        <v>1.024160196871171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032352962223883</v>
+        <v>1.043319931286195</v>
       </c>
       <c r="J6">
-        <v>1.03478940670953</v>
+        <v>1.022324395568253</v>
       </c>
       <c r="K6">
-        <v>1.040711490494733</v>
+        <v>1.032628931906488</v>
       </c>
       <c r="L6">
-        <v>1.032455332546184</v>
+        <v>1.018618523821617</v>
       </c>
       <c r="M6">
-        <v>1.048020822093474</v>
+        <v>1.033721482829726</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030028463348434</v>
+        <v>1.002100423618712</v>
       </c>
       <c r="D7">
-        <v>1.038047227990538</v>
+        <v>1.02195893433134</v>
       </c>
       <c r="E7">
-        <v>1.029747832366743</v>
+        <v>1.007727739333282</v>
       </c>
       <c r="F7">
-        <v>1.045313578259438</v>
+        <v>1.022834220290893</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032304356334826</v>
+        <v>1.043007495691256</v>
       </c>
       <c r="J7">
-        <v>1.034586819446918</v>
+        <v>1.021444481448952</v>
       </c>
       <c r="K7">
-        <v>1.040525336891529</v>
+        <v>1.031796450764774</v>
       </c>
       <c r="L7">
-        <v>1.032247015941753</v>
+        <v>1.017730813121431</v>
       </c>
       <c r="M7">
-        <v>1.047773531546597</v>
+        <v>1.032661739732591</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028708476953156</v>
+        <v>0.9959592152486728</v>
       </c>
       <c r="D8">
-        <v>1.037017534151437</v>
+        <v>1.01728394161657</v>
       </c>
       <c r="E8">
-        <v>1.028624193565721</v>
+        <v>1.002800784010141</v>
       </c>
       <c r="F8">
-        <v>1.044030682654666</v>
+        <v>1.017186259686274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032098488420482</v>
+        <v>1.041651229818202</v>
       </c>
       <c r="J8">
-        <v>1.033739734528176</v>
+        <v>1.017685284946948</v>
       </c>
       <c r="K8">
-        <v>1.039746211379948</v>
+        <v>1.028234771930969</v>
       </c>
       <c r="L8">
-        <v>1.03137648251335</v>
+        <v>1.013942950085413</v>
       </c>
       <c r="M8">
-        <v>1.046739946345816</v>
+        <v>1.028138357619434</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026385797786912</v>
+        <v>0.9846251497546668</v>
       </c>
       <c r="D9">
-        <v>1.035204277350283</v>
+        <v>1.008675126466537</v>
       </c>
       <c r="E9">
-        <v>1.026649900085692</v>
+        <v>0.9937602346073411</v>
       </c>
       <c r="F9">
-        <v>1.041775031529055</v>
+        <v>1.006804894278599</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03172556330165</v>
+        <v>1.039062668397237</v>
       </c>
       <c r="J9">
-        <v>1.032245969044679</v>
+        <v>1.010732765235567</v>
       </c>
       <c r="K9">
-        <v>1.038369453064372</v>
+        <v>1.021629006492411</v>
       </c>
       <c r="L9">
-        <v>1.029843283843143</v>
+        <v>1.00695536544107</v>
       </c>
       <c r="M9">
-        <v>1.044918884786762</v>
+        <v>1.019788523252091</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024839597962745</v>
+        <v>0.9766844353411073</v>
       </c>
       <c r="D10">
-        <v>1.033996310673444</v>
+        <v>1.002661375331819</v>
       </c>
       <c r="E10">
-        <v>1.025337599971992</v>
+        <v>0.9874656508453559</v>
       </c>
       <c r="F10">
-        <v>1.040274671176939</v>
+        <v>0.9995641088690971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031470142858967</v>
+        <v>1.037194281728893</v>
       </c>
       <c r="J10">
-        <v>1.031249433578329</v>
+        <v>1.005854654365167</v>
       </c>
       <c r="K10">
-        <v>1.037449083502132</v>
+        <v>1.016982743511377</v>
       </c>
       <c r="L10">
-        <v>1.028821731659435</v>
+        <v>1.002064965763315</v>
       </c>
       <c r="M10">
-        <v>1.04370506605795</v>
+        <v>1.013941237927382</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024170616518218</v>
+        <v>0.9731450051533935</v>
       </c>
       <c r="D11">
-        <v>1.033473468291537</v>
+        <v>0.9999861339874463</v>
       </c>
       <c r="E11">
-        <v>1.024770296240013</v>
+        <v>0.9846701613896327</v>
       </c>
       <c r="F11">
-        <v>1.039625819357558</v>
+        <v>0.9963452655365125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031357934775588</v>
+        <v>1.03634918764992</v>
       </c>
       <c r="J11">
-        <v>1.030817767428594</v>
+        <v>1.003679289049836</v>
       </c>
       <c r="K11">
-        <v>1.037049963460744</v>
+        <v>1.014908311805852</v>
       </c>
       <c r="L11">
-        <v>1.02837953558615</v>
+        <v>0.9998870845990543</v>
       </c>
       <c r="M11">
-        <v>1.043179533237487</v>
+        <v>1.011336435491035</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023922207527438</v>
+        <v>0.9718142171509497</v>
       </c>
       <c r="D12">
-        <v>1.033279294753137</v>
+        <v>0.9989811637518292</v>
       </c>
       <c r="E12">
-        <v>1.024559715216829</v>
+        <v>0.9836207012540699</v>
       </c>
       <c r="F12">
-        <v>1.039384930180451</v>
+        <v>0.9951363899664498</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031316014321759</v>
+        <v>1.03602965758019</v>
       </c>
       <c r="J12">
-        <v>1.030657404064482</v>
+        <v>1.002861278360075</v>
       </c>
       <c r="K12">
-        <v>1.036901624060661</v>
+        <v>1.014127909121312</v>
       </c>
       <c r="L12">
-        <v>1.028215306461055</v>
+        <v>0.9990685774613666</v>
       </c>
       <c r="M12">
-        <v>1.042984336630109</v>
+        <v>1.010357366049346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023975488449999</v>
+        <v>0.9721004188973301</v>
       </c>
       <c r="D13">
-        <v>1.033320944107484</v>
+        <v>0.9991972525815647</v>
       </c>
       <c r="E13">
-        <v>1.024604879171865</v>
+        <v>0.9838463258426094</v>
       </c>
       <c r="F13">
-        <v>1.039436596132488</v>
+        <v>0.99539630949641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031325017317561</v>
+        <v>1.036098455847292</v>
       </c>
       <c r="J13">
-        <v>1.03069180359586</v>
+        <v>1.003037204642818</v>
       </c>
       <c r="K13">
-        <v>1.036933447355234</v>
+        <v>1.014295762475822</v>
       </c>
       <c r="L13">
-        <v>1.02825053315011</v>
+        <v>0.9992445901282307</v>
       </c>
       <c r="M13">
-        <v>1.043026206513031</v>
+        <v>1.010567911274249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024150081309047</v>
+        <v>0.9730353354242924</v>
       </c>
       <c r="D14">
-        <v>1.033457417158671</v>
+        <v>0.9999032960603633</v>
       </c>
       <c r="E14">
-        <v>1.024752886668094</v>
+        <v>0.9845836424999064</v>
       </c>
       <c r="F14">
-        <v>1.039605904862583</v>
+        <v>0.9962456141256174</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031354474539408</v>
+        <v>1.036322891173044</v>
       </c>
       <c r="J14">
-        <v>1.030804512215123</v>
+        <v>1.003611878713178</v>
       </c>
       <c r="K14">
-        <v>1.037037703479368</v>
+        <v>1.014844007561916</v>
       </c>
       <c r="L14">
-        <v>1.028365959898601</v>
+        <v>0.9998196241884786</v>
       </c>
       <c r="M14">
-        <v>1.043163398022536</v>
+        <v>1.011255744006363</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024257664410968</v>
+        <v>0.9736092085876357</v>
       </c>
       <c r="D15">
-        <v>1.033541507167938</v>
+        <v>1.000336802335409</v>
       </c>
       <c r="E15">
-        <v>1.024844097663895</v>
+        <v>0.9850364396123169</v>
       </c>
       <c r="F15">
-        <v>1.039710237923685</v>
+        <v>0.996767120580733</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031372592133688</v>
+        <v>1.036460421489075</v>
       </c>
       <c r="J15">
-        <v>1.030873952642788</v>
+        <v>1.003964615894067</v>
       </c>
       <c r="K15">
-        <v>1.037101927421978</v>
+        <v>1.015180477552602</v>
       </c>
       <c r="L15">
-        <v>1.028437081089731</v>
+        <v>1.000172641738682</v>
       </c>
       <c r="M15">
-        <v>1.043247927548153</v>
+        <v>1.011677994615367</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024884007326327</v>
+        <v>0.9769171310024221</v>
       </c>
       <c r="D16">
-        <v>1.034031014625463</v>
+        <v>1.002837374085226</v>
       </c>
       <c r="E16">
-        <v>1.025375269749178</v>
+        <v>0.9876496562720491</v>
       </c>
       <c r="F16">
-        <v>1.040317750570225</v>
+        <v>0.9997759139813561</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031477555867851</v>
+        <v>1.037249590688421</v>
       </c>
       <c r="J16">
-        <v>1.031278078530242</v>
+        <v>1.005997654540604</v>
       </c>
       <c r="K16">
-        <v>1.037475559338267</v>
+        <v>1.017119059425828</v>
       </c>
       <c r="L16">
-        <v>1.028851081827209</v>
+        <v>1.002208193393463</v>
       </c>
       <c r="M16">
-        <v>1.043739945250767</v>
+        <v>1.014112525903714</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025277038734184</v>
+        <v>0.9789644320447762</v>
       </c>
       <c r="D17">
-        <v>1.034338128085611</v>
+        <v>1.004386457002834</v>
       </c>
       <c r="E17">
-        <v>1.025708709884793</v>
+        <v>0.9892697419195338</v>
       </c>
       <c r="F17">
-        <v>1.040699045846996</v>
+        <v>1.001640404555914</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031542966266989</v>
+        <v>1.03773481826311</v>
       </c>
       <c r="J17">
-        <v>1.031531533727101</v>
+        <v>1.007255686586635</v>
       </c>
       <c r="K17">
-        <v>1.037709770307701</v>
+        <v>1.018318010394236</v>
       </c>
       <c r="L17">
-        <v>1.029110812293812</v>
+        <v>1.003468564084933</v>
       </c>
       <c r="M17">
-        <v>1.044048591280732</v>
+        <v>1.015619732542673</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025506338732818</v>
+        <v>0.9801489029700013</v>
       </c>
       <c r="D18">
-        <v>1.034517282858681</v>
+        <v>1.005283176543565</v>
       </c>
       <c r="E18">
-        <v>1.025903289624391</v>
+        <v>0.9902080088063309</v>
       </c>
       <c r="F18">
-        <v>1.040921527416165</v>
+        <v>1.002719920495002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031580963739994</v>
+        <v>1.038014377672229</v>
       </c>
       <c r="J18">
-        <v>1.031679354400668</v>
+        <v>1.007983421823166</v>
       </c>
       <c r="K18">
-        <v>1.037846324243439</v>
+        <v>1.019011334393383</v>
       </c>
       <c r="L18">
-        <v>1.029262322405849</v>
+        <v>1.004197932885126</v>
       </c>
       <c r="M18">
-        <v>1.044228624893824</v>
+        <v>1.016491869152312</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02558453281817</v>
+        <v>0.9805511605566547</v>
       </c>
       <c r="D19">
-        <v>1.034578373482767</v>
+        <v>1.00558779194816</v>
       </c>
       <c r="E19">
-        <v>1.025969651480271</v>
+        <v>0.9905268140951793</v>
       </c>
       <c r="F19">
-        <v>1.040997401164866</v>
+        <v>1.003086669474719</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031593893541256</v>
+        <v>1.038109118370391</v>
       </c>
       <c r="J19">
-        <v>1.031729754788909</v>
+        <v>1.0082305485795</v>
       </c>
       <c r="K19">
-        <v>1.03789287585341</v>
+        <v>1.01924673521935</v>
       </c>
       <c r="L19">
-        <v>1.029313985744307</v>
+        <v>1.004445661871968</v>
       </c>
       <c r="M19">
-        <v>1.044290012628002</v>
+        <v>1.016788076227577</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025234864861443</v>
+        <v>0.9787457841201894</v>
       </c>
       <c r="D20">
-        <v>1.034305175570186</v>
+        <v>1.004220965909671</v>
       </c>
       <c r="E20">
-        <v>1.02567292562346</v>
+        <v>0.9890966193788964</v>
       </c>
       <c r="F20">
-        <v>1.040658128347205</v>
+        <v>1.001441195786574</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031535964411263</v>
+        <v>1.037683117839385</v>
       </c>
       <c r="J20">
-        <v>1.031504341976893</v>
+        <v>1.007121341311636</v>
       </c>
       <c r="K20">
-        <v>1.037684647614534</v>
+        <v>1.018189998567032</v>
       </c>
       <c r="L20">
-        <v>1.029082944247792</v>
+        <v>1.003333939907621</v>
       </c>
       <c r="M20">
-        <v>1.044015475896612</v>
+        <v>1.015458750753684</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024098665838249</v>
+        <v>0.9727604774705071</v>
       </c>
       <c r="D21">
-        <v>1.033417228315902</v>
+        <v>0.9996956995813621</v>
       </c>
       <c r="E21">
-        <v>1.024709298253575</v>
+        <v>0.9843668322362022</v>
       </c>
       <c r="F21">
-        <v>1.039556044250606</v>
+        <v>0.9959958868555768</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031345806781622</v>
+        <v>1.036256957551674</v>
       </c>
       <c r="J21">
-        <v>1.030771322974828</v>
+        <v>1.003442931317809</v>
       </c>
       <c r="K21">
-        <v>1.037007005084534</v>
+        <v>1.01468283932185</v>
       </c>
       <c r="L21">
-        <v>1.028331968979763</v>
+        <v>0.9996505585519087</v>
       </c>
       <c r="M21">
-        <v>1.043122998268205</v>
+        <v>1.011053517550538</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023384758382938</v>
+        <v>0.9689037098548953</v>
       </c>
       <c r="D22">
-        <v>1.032859134419642</v>
+        <v>0.9967849922818466</v>
       </c>
       <c r="E22">
-        <v>1.024104242838181</v>
+        <v>0.9813285351777448</v>
       </c>
       <c r="F22">
-        <v>1.038863833970388</v>
+        <v>0.9924951363388694</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031224850811751</v>
+        <v>1.03532761950164</v>
       </c>
       <c r="J22">
-        <v>1.030310310146395</v>
+        <v>1.001072133871213</v>
       </c>
       <c r="K22">
-        <v>1.036580433000307</v>
+        <v>1.01242040928751</v>
       </c>
       <c r="L22">
-        <v>1.027859929745268</v>
+        <v>0.9972791791856231</v>
       </c>
       <c r="M22">
-        <v>1.042561918603052</v>
+        <v>1.008216746645153</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02376316993465</v>
+        <v>0.9709574447300167</v>
       </c>
       <c r="D23">
-        <v>1.033154971825678</v>
+        <v>0.9983344196893134</v>
       </c>
       <c r="E23">
-        <v>1.024424916545274</v>
+        <v>0.9829455153558395</v>
       </c>
       <c r="F23">
-        <v>1.03923071975992</v>
+        <v>0.9943585040117459</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031289104077685</v>
+        <v>1.035823447003029</v>
       </c>
       <c r="J23">
-        <v>1.030554714315767</v>
+        <v>1.002334616697613</v>
       </c>
       <c r="K23">
-        <v>1.036806615138076</v>
+        <v>1.013625366015149</v>
       </c>
       <c r="L23">
-        <v>1.02811015422714</v>
+        <v>0.9985417234350783</v>
       </c>
       <c r="M23">
-        <v>1.042859351911092</v>
+        <v>1.009727130317941</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025253921260221</v>
+        <v>0.9788446115694605</v>
       </c>
       <c r="D24">
-        <v>1.034320065329635</v>
+        <v>1.004295765290455</v>
       </c>
       <c r="E24">
-        <v>1.025689094713596</v>
+        <v>0.9891748666703416</v>
       </c>
       <c r="F24">
-        <v>1.040676616961626</v>
+        <v>1.00153123435633</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031539128728367</v>
+        <v>1.03770648973023</v>
       </c>
       <c r="J24">
-        <v>1.031516628806128</v>
+        <v>1.007182064829371</v>
       </c>
       <c r="K24">
-        <v>1.037695999655453</v>
+        <v>1.018247860121177</v>
       </c>
       <c r="L24">
-        <v>1.029095536575849</v>
+        <v>1.00339478861783</v>
       </c>
       <c r="M24">
-        <v>1.044030439295977</v>
+        <v>1.015531513058497</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026985871177855</v>
+        <v>0.9876199691556804</v>
       </c>
       <c r="D25">
-        <v>1.035672899085462</v>
+        <v>1.010947154774794</v>
       </c>
       <c r="E25">
-        <v>1.027159620203238</v>
+        <v>0.9961425479601276</v>
       </c>
       <c r="F25">
-        <v>1.042357575457506</v>
+        <v>1.009542672267824</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031823174562657</v>
+        <v>1.039756315192291</v>
       </c>
       <c r="J25">
-        <v>1.032632268350838</v>
+        <v>1.012571276413829</v>
       </c>
       <c r="K25">
-        <v>1.038725827864696</v>
+        <v>1.023377874341756</v>
       </c>
       <c r="L25">
-        <v>1.030239553651163</v>
+        <v>1.008801042511182</v>
       </c>
       <c r="M25">
-        <v>1.045389637757078</v>
+        <v>1.021994634898114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9943448194516367</v>
+        <v>1.001121416725907</v>
       </c>
       <c r="D2">
-        <v>1.016056106986201</v>
+        <v>1.021760289501726</v>
       </c>
       <c r="E2">
-        <v>1.001508959218015</v>
+        <v>1.006638294229258</v>
       </c>
       <c r="F2">
-        <v>1.01570422096817</v>
+        <v>1.026228785368138</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041288903564846</v>
+        <v>1.048574311876747</v>
       </c>
       <c r="J2">
-        <v>1.016696001764907</v>
+        <v>1.023268638067476</v>
       </c>
       <c r="K2">
-        <v>1.027296196425447</v>
+        <v>1.032924569602122</v>
       </c>
       <c r="L2">
-        <v>1.012947311796355</v>
+        <v>1.018005915326518</v>
       </c>
       <c r="M2">
-        <v>1.026949022047416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.037334416066543</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038120072498458</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034350743127755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9990819001649952</v>
+        <v>1.006858039175268</v>
       </c>
       <c r="D3">
-        <v>1.019660274568995</v>
+        <v>1.025624434847651</v>
       </c>
       <c r="E3">
-        <v>1.005303487557236</v>
+        <v>1.011398323200656</v>
       </c>
       <c r="F3">
-        <v>1.020056103891781</v>
+        <v>1.02981253074053</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042345381401965</v>
+        <v>1.050110867172621</v>
       </c>
       <c r="J3">
-        <v>1.019597624836912</v>
+        <v>1.027163477178382</v>
       </c>
       <c r="K3">
-        <v>1.030047629812031</v>
+        <v>1.035939617231068</v>
       </c>
       <c r="L3">
-        <v>1.015868956055522</v>
+        <v>1.021887408464898</v>
       </c>
       <c r="M3">
-        <v>1.030438636674193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.040077651957807</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040291163687874</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036479994036346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002083699900213</v>
+        <v>1.010479340138418</v>
       </c>
       <c r="D4">
-        <v>1.021946194863557</v>
+        <v>1.028066177247617</v>
       </c>
       <c r="E4">
-        <v>1.007714294320009</v>
+        <v>1.014408104950055</v>
       </c>
       <c r="F4">
-        <v>1.02281881762898</v>
+        <v>1.032085087150647</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043003852525142</v>
+        <v>1.051066802470745</v>
       </c>
       <c r="J4">
-        <v>1.021434254192126</v>
+        <v>1.029618729572201</v>
       </c>
       <c r="K4">
-        <v>1.031786771996731</v>
+        <v>1.037837269635939</v>
       </c>
       <c r="L4">
-        <v>1.017720497752737</v>
+        <v>1.024335692155052</v>
       </c>
       <c r="M4">
-        <v>1.032649424518114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.041811101595306</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041663071944753</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037822710446577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003331038928064</v>
+        <v>1.011989156269183</v>
       </c>
       <c r="D5">
-        <v>1.022896486814989</v>
+        <v>1.029087257382527</v>
       </c>
       <c r="E5">
-        <v>1.008717515826199</v>
+        <v>1.015666128782106</v>
       </c>
       <c r="F5">
-        <v>1.023967959773076</v>
+        <v>1.033033345120781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043274782769772</v>
+        <v>1.051463825477044</v>
       </c>
       <c r="J5">
-        <v>1.022196892377641</v>
+        <v>1.030643958090786</v>
       </c>
       <c r="K5">
-        <v>1.032508332063123</v>
+        <v>1.038630728603793</v>
       </c>
       <c r="L5">
-        <v>1.018489864253304</v>
+        <v>1.025359130077515</v>
       </c>
       <c r="M5">
-        <v>1.033567898370288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.042533758537043</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042235005314692</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038390944050155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00353963127153</v>
+        <v>1.012251435483243</v>
       </c>
       <c r="D6">
-        <v>1.023055427048879</v>
+        <v>1.029267746810862</v>
       </c>
       <c r="E6">
-        <v>1.00888536872521</v>
+        <v>1.015887204417644</v>
       </c>
       <c r="F6">
-        <v>1.024160196871171</v>
+        <v>1.033196268403242</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043319931286195</v>
+        <v>1.051534914487764</v>
       </c>
       <c r="J6">
-        <v>1.022324395568253</v>
+        <v>1.030824966951031</v>
       </c>
       <c r="K6">
-        <v>1.032628931906488</v>
+        <v>1.038772961196853</v>
       </c>
       <c r="L6">
-        <v>1.018618523821617</v>
+        <v>1.025540785964678</v>
       </c>
       <c r="M6">
-        <v>1.033721482829726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.042658817405212</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042333980779654</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038500277382192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002100423618712</v>
+        <v>1.010526666228355</v>
       </c>
       <c r="D7">
-        <v>1.02195893433134</v>
+        <v>1.028106467885141</v>
       </c>
       <c r="E7">
-        <v>1.007727739333282</v>
+        <v>1.014454314480372</v>
       </c>
       <c r="F7">
-        <v>1.022834220290893</v>
+        <v>1.032109527393836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043007495691256</v>
+        <v>1.051085519941016</v>
       </c>
       <c r="J7">
-        <v>1.021444481448952</v>
+        <v>1.029658885108911</v>
       </c>
       <c r="K7">
-        <v>1.031796450764774</v>
+        <v>1.037874214510764</v>
       </c>
       <c r="L7">
-        <v>1.017730813121431</v>
+        <v>1.02437841946535</v>
       </c>
       <c r="M7">
-        <v>1.032661739732591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.041832392306835</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041679922088099</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037868997241173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9959592152486728</v>
+        <v>1.003114514901969</v>
       </c>
       <c r="D8">
-        <v>1.01728394161657</v>
+        <v>1.023112681468876</v>
       </c>
       <c r="E8">
-        <v>1.002800784010141</v>
+        <v>1.00830017382439</v>
       </c>
       <c r="F8">
-        <v>1.017186259686274</v>
+        <v>1.027464926563104</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041651229818202</v>
+        <v>1.049118784483687</v>
       </c>
       <c r="J8">
-        <v>1.017685284946948</v>
+        <v>1.024632755851005</v>
       </c>
       <c r="K8">
-        <v>1.028234771930969</v>
+        <v>1.033988419831779</v>
       </c>
       <c r="L8">
-        <v>1.013942950085413</v>
+        <v>1.019368875629088</v>
       </c>
       <c r="M8">
-        <v>1.028138357619434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.03828528833684</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.03887262624591</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035126005614977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9846251497546668</v>
+        <v>0.9892676045706246</v>
       </c>
       <c r="D9">
-        <v>1.008675126466537</v>
+        <v>1.01379407052819</v>
       </c>
       <c r="E9">
-        <v>0.9937602346073411</v>
+        <v>0.996834493785852</v>
       </c>
       <c r="F9">
-        <v>1.006804894278599</v>
+        <v>1.01888527368287</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039062668397237</v>
+        <v>1.045324884224136</v>
       </c>
       <c r="J9">
-        <v>1.010732765235567</v>
+        <v>1.015205128092047</v>
       </c>
       <c r="K9">
-        <v>1.021629006492411</v>
+        <v>1.026667243823859</v>
       </c>
       <c r="L9">
-        <v>1.00695536544107</v>
+        <v>1.009979138753773</v>
       </c>
       <c r="M9">
-        <v>1.019788523252091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.031679205005507</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03364432317832</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029946155829722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9766844353411073</v>
+        <v>0.979650295855418</v>
       </c>
       <c r="D10">
-        <v>1.002661375331819</v>
+        <v>1.007363591059009</v>
       </c>
       <c r="E10">
-        <v>0.9874656508453559</v>
+        <v>0.9889468547164808</v>
       </c>
       <c r="F10">
-        <v>0.9995641088690971</v>
+        <v>1.013152382038185</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037194281728893</v>
+        <v>1.042658928828923</v>
       </c>
       <c r="J10">
-        <v>1.005854654365167</v>
+        <v>1.008695228014088</v>
       </c>
       <c r="K10">
-        <v>1.016982743511377</v>
+        <v>1.021601154308588</v>
       </c>
       <c r="L10">
-        <v>1.002064965763315</v>
+        <v>1.003518586670112</v>
       </c>
       <c r="M10">
-        <v>1.013941237927382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.027288158441719</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.030221021124796</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026381013314961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9731450051533935</v>
+        <v>0.9767380888946675</v>
       </c>
       <c r="D11">
-        <v>0.9999861339874463</v>
+        <v>1.005561521369378</v>
       </c>
       <c r="E11">
-        <v>0.9846701613896327</v>
+        <v>0.9869016952403858</v>
       </c>
       <c r="F11">
-        <v>0.9963452655365125</v>
+        <v>1.012706995025865</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03634918764992</v>
+        <v>1.042126444000452</v>
       </c>
       <c r="J11">
-        <v>1.003679289049836</v>
+        <v>1.007111664775103</v>
       </c>
       <c r="K11">
-        <v>1.014908311805852</v>
+        <v>1.020379312186516</v>
       </c>
       <c r="L11">
-        <v>0.9998870845990543</v>
+        <v>1.002074927228652</v>
       </c>
       <c r="M11">
-        <v>1.011336435491035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.02739318974052</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.030744279573152</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025550351790278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9718142171509497</v>
+        <v>0.9760821147749348</v>
       </c>
       <c r="D12">
-        <v>0.9989811637518292</v>
+        <v>1.005213433205655</v>
       </c>
       <c r="E12">
-        <v>0.9836207012540699</v>
+        <v>0.9866156103073345</v>
       </c>
       <c r="F12">
-        <v>0.9951363899664498</v>
+        <v>1.013237961643748</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03602965758019</v>
+        <v>1.042134118530279</v>
       </c>
       <c r="J12">
-        <v>1.002861278360075</v>
+        <v>1.006934386515357</v>
       </c>
       <c r="K12">
-        <v>1.014127909121312</v>
+        <v>1.020241429048638</v>
       </c>
       <c r="L12">
-        <v>0.9990685774613666</v>
+        <v>1.002003806334905</v>
       </c>
       <c r="M12">
-        <v>1.010357366049346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.028115863115099</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.031644729060221</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025452861597981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9721004188973301</v>
+        <v>0.9771585341234081</v>
       </c>
       <c r="D13">
-        <v>0.9991972525815647</v>
+        <v>1.0059967461421</v>
       </c>
       <c r="E13">
-        <v>0.9838463258426094</v>
+        <v>0.9877012560478007</v>
       </c>
       <c r="F13">
-        <v>0.99539630949641</v>
+        <v>1.014590741948585</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036098455847292</v>
+        <v>1.042581875827213</v>
       </c>
       <c r="J13">
-        <v>1.003037204642818</v>
+        <v>1.007865774904914</v>
       </c>
       <c r="K13">
-        <v>1.014295762475822</v>
+        <v>1.020966301654566</v>
       </c>
       <c r="L13">
-        <v>0.9992445901282307</v>
+        <v>1.003023095256972</v>
       </c>
       <c r="M13">
-        <v>1.010567911274249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.029400531268176</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032938813117969</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02596285873249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9730353354242924</v>
+        <v>0.9786792526852721</v>
       </c>
       <c r="D14">
-        <v>0.9999032960603633</v>
+        <v>1.007045596310373</v>
       </c>
       <c r="E14">
-        <v>0.9845836424999064</v>
+        <v>0.9890655451722336</v>
       </c>
       <c r="F14">
-        <v>0.9962456141256174</v>
+        <v>1.015889860692677</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036322891173044</v>
+        <v>1.043086376700018</v>
       </c>
       <c r="J14">
-        <v>1.003611878713178</v>
+        <v>1.009003673405012</v>
       </c>
       <c r="K14">
-        <v>1.014844007561916</v>
+        <v>1.021852651213428</v>
       </c>
       <c r="L14">
-        <v>0.9998196241884786</v>
+        <v>1.004213901870241</v>
       </c>
       <c r="M14">
-        <v>1.011255744006363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.030534796862587</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034009558587498</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.02659099339006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9736092085876357</v>
+        <v>0.9794493325583373</v>
       </c>
       <c r="D15">
-        <v>1.000336802335409</v>
+        <v>1.007567573418085</v>
       </c>
       <c r="E15">
-        <v>0.9850364396123169</v>
+        <v>0.9897198824580635</v>
       </c>
       <c r="F15">
-        <v>0.996767120580733</v>
+        <v>1.016424387084871</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036460421489075</v>
+        <v>1.043318083189913</v>
       </c>
       <c r="J15">
-        <v>1.003964615894067</v>
+        <v>1.009546323840942</v>
       </c>
       <c r="K15">
-        <v>1.015180477552602</v>
+        <v>1.022277031120018</v>
       </c>
       <c r="L15">
-        <v>1.000172641738682</v>
+        <v>1.004765283941356</v>
       </c>
       <c r="M15">
-        <v>1.011677994615367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.030972825737305</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034393461448445</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026896988988732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9769171310024221</v>
+        <v>0.9833172209888669</v>
       </c>
       <c r="D16">
-        <v>1.002837374085226</v>
+        <v>1.010140723851343</v>
       </c>
       <c r="E16">
-        <v>0.9876496562720491</v>
+        <v>0.9928379638684389</v>
       </c>
       <c r="F16">
-        <v>0.9997759139813561</v>
+        <v>1.018637078192447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037249590688421</v>
+        <v>1.044379322499561</v>
       </c>
       <c r="J16">
-        <v>1.005997654540604</v>
+        <v>1.012129775718953</v>
       </c>
       <c r="K16">
-        <v>1.017119059425828</v>
+        <v>1.024293119688979</v>
       </c>
       <c r="L16">
-        <v>1.002208193393463</v>
+        <v>1.007300684483344</v>
       </c>
       <c r="M16">
-        <v>1.014112525903714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.032642080474202</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035673968931896</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028325655236062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9789644320447762</v>
+        <v>0.9854982505503864</v>
       </c>
       <c r="D17">
-        <v>1.004386457002834</v>
+        <v>1.011574852745614</v>
       </c>
       <c r="E17">
-        <v>0.9892697419195338</v>
+        <v>0.9945288761999627</v>
       </c>
       <c r="F17">
-        <v>1.001640404555914</v>
+        <v>1.019655693555273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03773481826311</v>
+        <v>1.044930964568217</v>
       </c>
       <c r="J17">
-        <v>1.007255686586635</v>
+        <v>1.013525346705542</v>
       </c>
       <c r="K17">
-        <v>1.018318010394236</v>
+        <v>1.025382931620741</v>
       </c>
       <c r="L17">
-        <v>1.003468564084933</v>
+        <v>1.008633518926785</v>
       </c>
       <c r="M17">
-        <v>1.015619732542673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.033327646300738</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036086329358367</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.02909881282518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9801489029700013</v>
+        <v>0.986366452637614</v>
       </c>
       <c r="D18">
-        <v>1.005283176543565</v>
+        <v>1.012102447869753</v>
       </c>
       <c r="E18">
-        <v>0.9902080088063309</v>
+        <v>0.9950752300983225</v>
       </c>
       <c r="F18">
-        <v>1.002719920495002</v>
+        <v>1.01961255024785</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038014377672229</v>
+        <v>1.045057538265338</v>
       </c>
       <c r="J18">
-        <v>1.007983421823166</v>
+        <v>1.013954601022942</v>
       </c>
       <c r="K18">
-        <v>1.019011334393383</v>
+        <v>1.025715496839751</v>
       </c>
       <c r="L18">
-        <v>1.004197932885126</v>
+        <v>1.008979516426187</v>
       </c>
       <c r="M18">
-        <v>1.016491869152312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.033101120346717</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035668504126761</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029322202689085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9805511605566547</v>
+        <v>0.9860245571579838</v>
       </c>
       <c r="D19">
-        <v>1.00558779194816</v>
+        <v>1.011798889972229</v>
       </c>
       <c r="E19">
-        <v>0.9905268140951793</v>
+        <v>0.9945762508329772</v>
       </c>
       <c r="F19">
-        <v>1.003086669474719</v>
+        <v>1.018544749411369</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038109118370391</v>
+        <v>1.044789120289907</v>
       </c>
       <c r="J19">
-        <v>1.0082305485795</v>
+        <v>1.013488355816824</v>
       </c>
       <c r="K19">
-        <v>1.01924673521935</v>
+        <v>1.025353552276272</v>
       </c>
       <c r="L19">
-        <v>1.004445661871968</v>
+        <v>1.008424216566686</v>
       </c>
       <c r="M19">
-        <v>1.016788076227577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.031988004713925</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034461007739135</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029072749231679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9787457841201894</v>
+        <v>0.9822401545213757</v>
       </c>
       <c r="D20">
-        <v>1.004220965909671</v>
+        <v>1.009115730463263</v>
       </c>
       <c r="E20">
-        <v>0.9890966193788964</v>
+        <v>0.9910921580575623</v>
       </c>
       <c r="F20">
-        <v>1.001441195786574</v>
+        <v>1.014685599096399</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037683117839385</v>
+        <v>1.043398647230651</v>
       </c>
       <c r="J20">
-        <v>1.007121341311636</v>
+        <v>1.010473281608633</v>
       </c>
       <c r="K20">
-        <v>1.018189998567032</v>
+        <v>1.023000162464362</v>
       </c>
       <c r="L20">
-        <v>1.003333939907621</v>
+        <v>1.005293470707981</v>
       </c>
       <c r="M20">
-        <v>1.015458750753684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.028475043332308</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.031149670246124</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027412761311645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9727604774705071</v>
+        <v>0.9746716751047433</v>
       </c>
       <c r="D21">
-        <v>0.9996956995813621</v>
+        <v>1.004034266273366</v>
       </c>
       <c r="E21">
-        <v>0.9843668322362022</v>
+        <v>0.9848337615733352</v>
       </c>
       <c r="F21">
-        <v>0.9959958868555768</v>
+        <v>1.009949785698972</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036256957551674</v>
+        <v>1.04121857789052</v>
       </c>
       <c r="J21">
-        <v>1.003442931317809</v>
+        <v>1.005267905658955</v>
       </c>
       <c r="K21">
-        <v>1.01468283932185</v>
+        <v>1.018939609215782</v>
       </c>
       <c r="L21">
-        <v>0.9996505585519087</v>
+        <v>1.000108274576736</v>
       </c>
       <c r="M21">
-        <v>1.011053517550538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.02474507675389</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.028156351162946</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024545032529703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9689037098548953</v>
+        <v>0.9698201417843603</v>
       </c>
       <c r="D22">
-        <v>0.9967849922818466</v>
+        <v>1.000783665585752</v>
       </c>
       <c r="E22">
-        <v>0.9813285351777448</v>
+        <v>0.9808408098055384</v>
       </c>
       <c r="F22">
-        <v>0.9924951363388694</v>
+        <v>1.007019101002039</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03532761950164</v>
+        <v>1.039819652341804</v>
       </c>
       <c r="J22">
-        <v>1.001072133871213</v>
+        <v>1.001944583589516</v>
       </c>
       <c r="K22">
-        <v>1.01242040928751</v>
+        <v>1.016339613877094</v>
       </c>
       <c r="L22">
-        <v>0.9972791791856231</v>
+        <v>0.9968016144535482</v>
       </c>
       <c r="M22">
-        <v>1.008216746645153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.02245277886681</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026342116903536</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.022692989011934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9709574447300167</v>
+        <v>0.9723764481235716</v>
       </c>
       <c r="D23">
-        <v>0.9983344196893134</v>
+        <v>1.002487863764921</v>
       </c>
       <c r="E23">
-        <v>0.9829455153558395</v>
+        <v>0.9829352572050607</v>
       </c>
       <c r="F23">
-        <v>0.9943585040117459</v>
+        <v>1.00856684200341</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035823447003029</v>
+        <v>1.040552618235801</v>
       </c>
       <c r="J23">
-        <v>1.002334616697613</v>
+        <v>1.003687700302716</v>
       </c>
       <c r="K23">
-        <v>1.013625366015149</v>
+        <v>1.017698523271357</v>
       </c>
       <c r="L23">
-        <v>0.9985417234350783</v>
+        <v>0.9985316729694217</v>
       </c>
       <c r="M23">
-        <v>1.009727130317941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.023661551972368</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.027298798389768</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02364404013206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9788446115694605</v>
+        <v>0.9821839494178933</v>
       </c>
       <c r="D24">
-        <v>1.004295765290455</v>
+        <v>1.00905291483438</v>
       </c>
       <c r="E24">
-        <v>0.9891748666703416</v>
+        <v>0.9910030432198337</v>
       </c>
       <c r="F24">
-        <v>1.00153123435633</v>
+        <v>1.014532288877988</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03770648973023</v>
+        <v>1.043346553054635</v>
       </c>
       <c r="J24">
-        <v>1.007182064829371</v>
+        <v>1.010385492358354</v>
       </c>
       <c r="K24">
-        <v>1.018247860121177</v>
+        <v>1.022922894657274</v>
       </c>
       <c r="L24">
-        <v>1.00339478861783</v>
+        <v>1.005190019405285</v>
       </c>
       <c r="M24">
-        <v>1.015531513058497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.028308918580969</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.030976936676573</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027330408387602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876199691556804</v>
+        <v>0.9929889535795587</v>
       </c>
       <c r="D25">
-        <v>1.010947154774794</v>
+        <v>1.016308286518032</v>
       </c>
       <c r="E25">
-        <v>0.9961425479601276</v>
+        <v>0.9999231132694314</v>
       </c>
       <c r="F25">
-        <v>1.009542672267824</v>
+        <v>1.021171141257872</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039756315192291</v>
+        <v>1.046366435058739</v>
       </c>
       <c r="J25">
-        <v>1.012571276413829</v>
+        <v>1.017754593236471</v>
       </c>
       <c r="K25">
-        <v>1.023377874341756</v>
+        <v>1.028658604466194</v>
       </c>
       <c r="L25">
-        <v>1.008801042511182</v>
+        <v>1.012522622922591</v>
       </c>
       <c r="M25">
-        <v>1.021994634898114</v>
+        <v>1.033449457648979</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035045371553753</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031383025893881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001121416725907</v>
+        <v>1.000773785574198</v>
       </c>
       <c r="D2">
-        <v>1.021760289501726</v>
+        <v>1.021210689666411</v>
       </c>
       <c r="E2">
-        <v>1.006638294229258</v>
+        <v>1.006635671076827</v>
       </c>
       <c r="F2">
-        <v>1.026228785368138</v>
+        <v>1.026036661921406</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048574311876747</v>
+        <v>1.04829514358368</v>
       </c>
       <c r="J2">
-        <v>1.023268638067476</v>
+        <v>1.022931377453091</v>
       </c>
       <c r="K2">
-        <v>1.032924569602122</v>
+        <v>1.032382227772966</v>
       </c>
       <c r="L2">
-        <v>1.018005915326518</v>
+        <v>1.018003328114386</v>
       </c>
       <c r="M2">
-        <v>1.037334416066543</v>
+        <v>1.037144801091116</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038120072498458</v>
+        <v>1.037970004445316</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034350743127755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033976080079867</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020343681516211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006858039175268</v>
+        <v>1.006095634473365</v>
       </c>
       <c r="D3">
-        <v>1.025624434847651</v>
+        <v>1.024639028758225</v>
       </c>
       <c r="E3">
-        <v>1.011398323200656</v>
+        <v>1.01099084603027</v>
       </c>
       <c r="F3">
-        <v>1.02981253074053</v>
+        <v>1.029436169730105</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050110867172621</v>
+        <v>1.049612141651462</v>
       </c>
       <c r="J3">
-        <v>1.027163477178382</v>
+        <v>1.026421494506555</v>
       </c>
       <c r="K3">
-        <v>1.035939617231068</v>
+        <v>1.034966063712448</v>
       </c>
       <c r="L3">
-        <v>1.021887408464898</v>
+        <v>1.0214850021886</v>
       </c>
       <c r="M3">
-        <v>1.040077651957807</v>
+        <v>1.039705769018312</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040291163687874</v>
+        <v>1.03999684312983</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036479994036346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035800136189202</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020964911533932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010479340138418</v>
+        <v>1.009460363733872</v>
       </c>
       <c r="D4">
-        <v>1.028066177247617</v>
+        <v>1.026809137596997</v>
       </c>
       <c r="E4">
-        <v>1.014408104950055</v>
+        <v>1.013750285536919</v>
       </c>
       <c r="F4">
-        <v>1.032085087150647</v>
+        <v>1.031594684555409</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051066802470745</v>
+        <v>1.050431008875707</v>
       </c>
       <c r="J4">
-        <v>1.029618729572201</v>
+        <v>1.028625129665923</v>
       </c>
       <c r="K4">
-        <v>1.037837269635939</v>
+        <v>1.036594418794048</v>
       </c>
       <c r="L4">
-        <v>1.024335692155052</v>
+        <v>1.023685541681272</v>
       </c>
       <c r="M4">
-        <v>1.041811101595306</v>
+        <v>1.041326176423464</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041663071944753</v>
+        <v>1.041279286700702</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037822710446577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036952511636399</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021353735133852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011989156269183</v>
+        <v>1.010863482348458</v>
       </c>
       <c r="D5">
-        <v>1.029087257382527</v>
+        <v>1.027717136249277</v>
       </c>
       <c r="E5">
-        <v>1.015666128782106</v>
+        <v>1.014903819784967</v>
       </c>
       <c r="F5">
-        <v>1.033033345120781</v>
+        <v>1.03249553546473</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051463825477044</v>
+        <v>1.050770915351913</v>
       </c>
       <c r="J5">
-        <v>1.030643958090786</v>
+        <v>1.02954544904579</v>
       </c>
       <c r="K5">
-        <v>1.038630728603793</v>
+        <v>1.037275652575455</v>
       </c>
       <c r="L5">
-        <v>1.025359130077515</v>
+        <v>1.024605460566368</v>
       </c>
       <c r="M5">
-        <v>1.042533758537043</v>
+        <v>1.042001793429742</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042235005314692</v>
+        <v>1.041813991487455</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038390944050155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037442104470976</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021517132193877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012251435483243</v>
+        <v>1.011106184871312</v>
       </c>
       <c r="D6">
-        <v>1.029267746810862</v>
+        <v>1.027877268720672</v>
       </c>
       <c r="E6">
-        <v>1.015887204417644</v>
+        <v>1.015105210255704</v>
       </c>
       <c r="F6">
-        <v>1.033196268403242</v>
+        <v>1.032649802724685</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051534914487764</v>
+        <v>1.050831717105965</v>
       </c>
       <c r="J6">
-        <v>1.030824966951031</v>
+        <v>1.029707205881156</v>
       </c>
       <c r="K6">
-        <v>1.038772961196853</v>
+        <v>1.037397680228638</v>
       </c>
       <c r="L6">
-        <v>1.025540785964678</v>
+        <v>1.024767611804579</v>
       </c>
       <c r="M6">
-        <v>1.042658817405212</v>
+        <v>1.042118262732731</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042333980779654</v>
+        <v>1.041906168958231</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038500277382192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037538024091463</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021548038863407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010526666228355</v>
+        <v>1.009501231513116</v>
       </c>
       <c r="D7">
-        <v>1.028106467885141</v>
+        <v>1.026843749957343</v>
       </c>
       <c r="E7">
-        <v>1.014454314480372</v>
+        <v>1.013788740370084</v>
       </c>
       <c r="F7">
-        <v>1.032109527393836</v>
+        <v>1.031616374810254</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051085519941016</v>
+        <v>1.050446853392838</v>
       </c>
       <c r="J7">
-        <v>1.029658885108911</v>
+        <v>1.028658975400755</v>
       </c>
       <c r="K7">
-        <v>1.037874214510764</v>
+        <v>1.036625743449781</v>
       </c>
       <c r="L7">
-        <v>1.02437841946535</v>
+        <v>1.023720601300471</v>
       </c>
       <c r="M7">
-        <v>1.041832392306835</v>
+        <v>1.04134474572329</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041679922088099</v>
+        <v>1.041293983040464</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037868997241173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036996832800235</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021365819051378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003114514901969</v>
+        <v>1.002617211233699</v>
       </c>
       <c r="D8">
-        <v>1.023112681468876</v>
+        <v>1.022407864677635</v>
       </c>
       <c r="E8">
-        <v>1.00830017382439</v>
+        <v>1.008149468673871</v>
       </c>
       <c r="F8">
-        <v>1.027464926563104</v>
+        <v>1.027206500868698</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049118784483687</v>
+        <v>1.048761453804691</v>
       </c>
       <c r="J8">
-        <v>1.024632755851005</v>
+        <v>1.02414976520448</v>
       </c>
       <c r="K8">
-        <v>1.033988419831779</v>
+        <v>1.033292626347143</v>
       </c>
       <c r="L8">
-        <v>1.019368875629088</v>
+        <v>1.019220170286633</v>
       </c>
       <c r="M8">
-        <v>1.03828528833684</v>
+        <v>1.038030134410225</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03887262624591</v>
+        <v>1.03867068853483</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035126005614977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034645107907882</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020569081969849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9892676045706246</v>
+        <v>0.9898094546915465</v>
       </c>
       <c r="D9">
-        <v>1.01379407052819</v>
+        <v>1.014165878565065</v>
       </c>
       <c r="E9">
-        <v>0.996834493785852</v>
+        <v>0.9976991362530012</v>
       </c>
       <c r="F9">
-        <v>1.01888527368287</v>
+        <v>1.019087783478192</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045324884224136</v>
+        <v>1.045508650686014</v>
       </c>
       <c r="J9">
-        <v>1.015205128092047</v>
+        <v>1.015727271620462</v>
       </c>
       <c r="K9">
-        <v>1.026667243823859</v>
+        <v>1.027033230419313</v>
       </c>
       <c r="L9">
-        <v>1.009979138753773</v>
+        <v>1.010829653995924</v>
       </c>
       <c r="M9">
-        <v>1.031679205005507</v>
+        <v>1.031878583749752</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03364432317832</v>
+        <v>1.033802119588513</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029946155829722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030215777138505</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019043726830244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.979650295855418</v>
+        <v>0.9809254750968325</v>
       </c>
       <c r="D10">
-        <v>1.007363591059009</v>
+        <v>1.008487179840481</v>
       </c>
       <c r="E10">
-        <v>0.9889468547164808</v>
+        <v>0.9905163524857683</v>
       </c>
       <c r="F10">
-        <v>1.013152382038185</v>
+        <v>1.013680097381048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042658928828923</v>
+        <v>1.043219364929656</v>
       </c>
       <c r="J10">
-        <v>1.008695228014088</v>
+        <v>1.009916871257929</v>
       </c>
       <c r="K10">
-        <v>1.021601154308588</v>
+        <v>1.022704868018259</v>
       </c>
       <c r="L10">
-        <v>1.003518586670112</v>
+        <v>1.005058974628213</v>
       </c>
       <c r="M10">
-        <v>1.027288158441719</v>
+        <v>1.027806669602111</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030221021124796</v>
+        <v>1.030631367695581</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026381013314961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027173974630251</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017995560596476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9767380888946675</v>
+        <v>0.9780359205956924</v>
       </c>
       <c r="D11">
-        <v>1.005561521369378</v>
+        <v>1.006761474601743</v>
       </c>
       <c r="E11">
-        <v>0.9869016952403858</v>
+        <v>0.9884119039050391</v>
       </c>
       <c r="F11">
-        <v>1.012706995025865</v>
+        <v>1.013248973146557</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042126444000452</v>
+        <v>1.042725426398918</v>
       </c>
       <c r="J11">
-        <v>1.007111664775103</v>
+        <v>1.008351863543389</v>
       </c>
       <c r="K11">
-        <v>1.020379312186516</v>
+        <v>1.021556996052958</v>
       </c>
       <c r="L11">
-        <v>1.002074927228652</v>
+        <v>1.003555714262858</v>
       </c>
       <c r="M11">
-        <v>1.02739318974052</v>
+        <v>1.027925284964173</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.030744279573152</v>
+        <v>1.031165160755123</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025550351790278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026398829272883</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01787223558886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9760821147749348</v>
+        <v>0.9772835014265164</v>
       </c>
       <c r="D12">
-        <v>1.005213433205655</v>
+        <v>1.006354782903127</v>
       </c>
       <c r="E12">
-        <v>0.9866156103073345</v>
+        <v>0.9879716180776238</v>
       </c>
       <c r="F12">
-        <v>1.013237961643748</v>
+        <v>1.013741205531938</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042134118530279</v>
+        <v>1.042704140065248</v>
       </c>
       <c r="J12">
-        <v>1.006934386515357</v>
+        <v>1.008081380881084</v>
       </c>
       <c r="K12">
-        <v>1.020241429048638</v>
+        <v>1.021361239664105</v>
       </c>
       <c r="L12">
-        <v>1.002003806334905</v>
+        <v>1.003332948978027</v>
       </c>
       <c r="M12">
-        <v>1.028115863115099</v>
+        <v>1.02860979732586</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031644729060221</v>
+        <v>1.032035291104138</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025452861597981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026260423092364</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017936834587726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9771585341234081</v>
+        <v>0.9781596879225456</v>
       </c>
       <c r="D13">
-        <v>1.0059967461421</v>
+        <v>1.006966636383749</v>
       </c>
       <c r="E13">
-        <v>0.9877012560478007</v>
+        <v>0.9888133194605604</v>
       </c>
       <c r="F13">
-        <v>1.014590741948585</v>
+        <v>1.015009800590775</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042581875827213</v>
+        <v>1.043066539970007</v>
       </c>
       <c r="J13">
-        <v>1.007865774904914</v>
+        <v>1.008821897891363</v>
       </c>
       <c r="K13">
-        <v>1.020966301654566</v>
+        <v>1.021917982951927</v>
       </c>
       <c r="L13">
-        <v>1.003023095256972</v>
+        <v>1.004113257087797</v>
       </c>
       <c r="M13">
-        <v>1.029400531268176</v>
+        <v>1.029811889535094</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032938813117969</v>
+        <v>1.033263998414551</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02596285873249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026651293132967</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018165424088183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9786792526852721</v>
+        <v>0.9794986951465448</v>
       </c>
       <c r="D14">
-        <v>1.007045596310373</v>
+        <v>1.007848702637355</v>
       </c>
       <c r="E14">
-        <v>0.9890655451722336</v>
+        <v>0.9899721436606506</v>
       </c>
       <c r="F14">
-        <v>1.015889860692677</v>
+        <v>1.016231873101748</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043086376700018</v>
+        <v>1.043487897420928</v>
       </c>
       <c r="J14">
-        <v>1.009003673405012</v>
+        <v>1.009786855511039</v>
       </c>
       <c r="K14">
-        <v>1.021852651213428</v>
+        <v>1.022640883166922</v>
       </c>
       <c r="L14">
-        <v>1.004213901870241</v>
+        <v>1.005102902042307</v>
       </c>
       <c r="M14">
-        <v>1.030534796862587</v>
+        <v>1.030870613753868</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034009558587498</v>
+        <v>1.034274991208733</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.02659099339006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027163987857147</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018396887128573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9794493325583373</v>
+        <v>0.9801977852974335</v>
       </c>
       <c r="D15">
-        <v>1.007567573418085</v>
+        <v>1.008301703438519</v>
       </c>
       <c r="E15">
-        <v>0.9897198824580635</v>
+        <v>0.9905521099536753</v>
       </c>
       <c r="F15">
-        <v>1.016424387084871</v>
+        <v>1.016735880336518</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043318083189913</v>
+        <v>1.043685162493371</v>
       </c>
       <c r="J15">
-        <v>1.009546323840942</v>
+        <v>1.010261976802963</v>
       </c>
       <c r="K15">
-        <v>1.022277031120018</v>
+        <v>1.022997674430601</v>
       </c>
       <c r="L15">
-        <v>1.004765283941356</v>
+        <v>1.005581494199394</v>
       </c>
       <c r="M15">
-        <v>1.030972825737305</v>
+        <v>1.031278722313685</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034393461448445</v>
+        <v>1.034635238430397</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026896988988732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027422760474339</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018495699619853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9833172209888669</v>
+        <v>0.9838004943076348</v>
       </c>
       <c r="D16">
-        <v>1.010140723851343</v>
+        <v>1.010594290772879</v>
       </c>
       <c r="E16">
-        <v>0.9928379638684389</v>
+        <v>0.9934291146381546</v>
       </c>
       <c r="F16">
-        <v>1.018637078192447</v>
+        <v>1.018831181016882</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044379322499561</v>
+        <v>1.044605974891616</v>
       </c>
       <c r="J16">
-        <v>1.012129775718953</v>
+        <v>1.012593015824127</v>
       </c>
       <c r="K16">
-        <v>1.024293119688979</v>
+        <v>1.024738737067132</v>
       </c>
       <c r="L16">
-        <v>1.007300684483344</v>
+        <v>1.007881000718243</v>
       </c>
       <c r="M16">
-        <v>1.032642080474202</v>
+        <v>1.032832853152472</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035673968931896</v>
+        <v>1.035824757775997</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028325655236062</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028657253084421</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018902608211635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9854982505503864</v>
+        <v>0.9858699361540444</v>
       </c>
       <c r="D17">
-        <v>1.011574852745614</v>
+        <v>1.011897816488484</v>
       </c>
       <c r="E17">
-        <v>0.9945288761999627</v>
+        <v>0.9950383845207671</v>
       </c>
       <c r="F17">
-        <v>1.019655693555273</v>
+        <v>1.019798443030762</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044930964568217</v>
+        <v>1.045092017814082</v>
       </c>
       <c r="J17">
-        <v>1.013525346705542</v>
+        <v>1.013882154380572</v>
       </c>
       <c r="K17">
-        <v>1.025382931620741</v>
+        <v>1.02570040101061</v>
       </c>
       <c r="L17">
-        <v>1.008633518926785</v>
+        <v>1.009133971722817</v>
       </c>
       <c r="M17">
-        <v>1.033327646300738</v>
+        <v>1.033468016064369</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036086329358367</v>
+        <v>1.036197290320902</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.02909881282518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029340042653857</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019094952928604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.986366452637614</v>
+        <v>0.9867627340523522</v>
       </c>
       <c r="D18">
-        <v>1.012102447869753</v>
+        <v>1.01242458122574</v>
       </c>
       <c r="E18">
-        <v>0.9950752300983225</v>
+        <v>0.9956503620212847</v>
       </c>
       <c r="F18">
-        <v>1.01961255024785</v>
+        <v>1.019762327587298</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045057538265338</v>
+        <v>1.045217798617167</v>
       </c>
       <c r="J18">
-        <v>1.013954601022942</v>
+        <v>1.014335328585727</v>
       </c>
       <c r="K18">
-        <v>1.025715496839751</v>
+        <v>1.026032242032323</v>
       </c>
       <c r="L18">
-        <v>1.008979516426187</v>
+        <v>1.009544600656628</v>
       </c>
       <c r="M18">
-        <v>1.033101120346717</v>
+        <v>1.03324843912756</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035668504126761</v>
+        <v>1.03578498268406</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029322202689085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029561781149367</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019099778569694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9860245571579838</v>
+        <v>0.9865704991483227</v>
       </c>
       <c r="D19">
-        <v>1.011798889972229</v>
+        <v>1.012240641522488</v>
       </c>
       <c r="E19">
-        <v>0.9945762508329772</v>
+        <v>0.9953489189679158</v>
       </c>
       <c r="F19">
-        <v>1.018544749411369</v>
+        <v>1.018756103827704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044789120289907</v>
+        <v>1.045008783456309</v>
       </c>
       <c r="J19">
-        <v>1.013488355816824</v>
+        <v>1.014012979326628</v>
       </c>
       <c r="K19">
-        <v>1.025353552276272</v>
+        <v>1.025787949840034</v>
       </c>
       <c r="L19">
-        <v>1.008424216566686</v>
+        <v>1.009183444596658</v>
       </c>
       <c r="M19">
-        <v>1.031988004713925</v>
+        <v>1.032195899282088</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034461007739135</v>
+        <v>1.034625435217057</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029072749231679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029396139808257</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018938669309551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9822401545213757</v>
+        <v>0.9833019955621165</v>
       </c>
       <c r="D20">
-        <v>1.009115730463263</v>
+        <v>1.010025947281723</v>
       </c>
       <c r="E20">
-        <v>0.9910921580575623</v>
+        <v>0.9924512838046181</v>
       </c>
       <c r="F20">
-        <v>1.014685599096399</v>
+        <v>1.01511922534505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043398647230651</v>
+        <v>1.043852222880612</v>
       </c>
       <c r="J20">
-        <v>1.010473281608633</v>
+        <v>1.011492126528839</v>
       </c>
       <c r="K20">
-        <v>1.023000162464362</v>
+        <v>1.023894764027807</v>
       </c>
       <c r="L20">
-        <v>1.005293470707981</v>
+        <v>1.006628179820002</v>
       </c>
       <c r="M20">
-        <v>1.028475043332308</v>
+        <v>1.028901331013709</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031149670246124</v>
+        <v>1.031487035705567</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027412761311645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028061944030323</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018298860539836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9746716751047433</v>
+        <v>0.9763657256307489</v>
       </c>
       <c r="D21">
-        <v>1.004034266273366</v>
+        <v>1.005575590182549</v>
       </c>
       <c r="E21">
-        <v>0.9848337615733352</v>
+        <v>0.9868145040464478</v>
       </c>
       <c r="F21">
-        <v>1.009949785698972</v>
+        <v>1.010662689522548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04121857789052</v>
+        <v>1.04198782859755</v>
       </c>
       <c r="J21">
-        <v>1.005267905658955</v>
+        <v>1.006885933520991</v>
       </c>
       <c r="K21">
-        <v>1.018939609215782</v>
+        <v>1.020452095659725</v>
       </c>
       <c r="L21">
-        <v>1.000108274576736</v>
+        <v>1.00205006085209</v>
       </c>
       <c r="M21">
-        <v>1.02474507675389</v>
+        <v>1.025444831116797</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.028156351162946</v>
+        <v>1.028710169303258</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024545032529703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025631453191216</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017428975444677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9698201417843603</v>
+        <v>0.9719238782475403</v>
       </c>
       <c r="D22">
-        <v>1.000783665585752</v>
+        <v>1.002730877840457</v>
       </c>
       <c r="E22">
-        <v>0.9808408098055384</v>
+        <v>0.983220945667567</v>
       </c>
       <c r="F22">
-        <v>1.007019101002039</v>
+        <v>1.007912834636004</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039819652341804</v>
+        <v>1.040791692837657</v>
       </c>
       <c r="J22">
-        <v>1.001944583589516</v>
+        <v>1.003947807460927</v>
       </c>
       <c r="K22">
-        <v>1.016339613877094</v>
+        <v>1.018248428936117</v>
       </c>
       <c r="L22">
-        <v>0.9968016144535482</v>
+        <v>0.9991322916723046</v>
       </c>
       <c r="M22">
-        <v>1.02245277886681</v>
+        <v>1.023329149796422</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026342116903536</v>
+        <v>1.02703571936741</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.022692989011934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024058368109023</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016872895189159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9723764481235716</v>
+        <v>0.9742679425923877</v>
       </c>
       <c r="D23">
-        <v>1.002487863764921</v>
+        <v>1.00422387320695</v>
       </c>
       <c r="E23">
-        <v>0.9829352572050607</v>
+        <v>0.9851105503223536</v>
       </c>
       <c r="F23">
-        <v>1.00856684200341</v>
+        <v>1.009366765917167</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040552618235801</v>
+        <v>1.041419188581761</v>
       </c>
       <c r="J23">
-        <v>1.003687700302716</v>
+        <v>1.005491754092533</v>
       </c>
       <c r="K23">
-        <v>1.017698523271357</v>
+        <v>1.019401232904469</v>
       </c>
       <c r="L23">
-        <v>0.9985316729694217</v>
+        <v>1.000663052804577</v>
       </c>
       <c r="M23">
-        <v>1.023661551972368</v>
+        <v>1.024446354133286</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.027298798389768</v>
+        <v>1.027919928055298</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02364404013206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.024862739948025</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01715919432635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9821839494178933</v>
+        <v>0.9832755442247314</v>
       </c>
       <c r="D24">
-        <v>1.00905291483438</v>
+        <v>1.009986511236048</v>
       </c>
       <c r="E24">
-        <v>0.9910030432198337</v>
+        <v>0.9924008337425927</v>
       </c>
       <c r="F24">
-        <v>1.014532288877988</v>
+        <v>1.014978490792651</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043346553054635</v>
+        <v>1.043811823159258</v>
       </c>
       <c r="J24">
-        <v>1.010385492358354</v>
+        <v>1.011432943367301</v>
       </c>
       <c r="K24">
-        <v>1.022922894657274</v>
+        <v>1.023840493214857</v>
       </c>
       <c r="L24">
-        <v>1.005190019405285</v>
+        <v>1.00656272655528</v>
       </c>
       <c r="M24">
-        <v>1.028308918580969</v>
+        <v>1.028747575975928</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030976936676573</v>
+        <v>1.031324109174611</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027330408387602</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027993187441369</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01826375948664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9929889535795587</v>
+        <v>0.9932389188413964</v>
       </c>
       <c r="D25">
-        <v>1.016308286518032</v>
+        <v>1.016382320831775</v>
       </c>
       <c r="E25">
-        <v>0.9999231132694314</v>
+        <v>1.000499977310447</v>
       </c>
       <c r="F25">
-        <v>1.021171141257872</v>
+        <v>1.021244499737009</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046366435058739</v>
+        <v>1.046400737026444</v>
       </c>
       <c r="J25">
-        <v>1.017754593236471</v>
+        <v>1.0179959825401</v>
       </c>
       <c r="K25">
-        <v>1.028658604466194</v>
+        <v>1.028731536027859</v>
       </c>
       <c r="L25">
-        <v>1.012522622922591</v>
+        <v>1.013090536730199</v>
       </c>
       <c r="M25">
-        <v>1.033449457648979</v>
+        <v>1.033521736617516</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035045371553753</v>
+        <v>1.035102575946102</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031383025893881</v>
+        <v>1.031448226691986</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019467908080213</v>
       </c>
     </row>
   </sheetData>
